--- a/templates/Attendance and absence.xlsx
+++ b/templates/Attendance and absence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lion-PC\Downloads\SchoolRanker\SchoolRanker\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Documents\120\SchoolRanker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278763B2-804F-4DF9-A12D-4CEF5B24B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F5A75-744D-4156-BDD5-7C571912EC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="909" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="حزيران" sheetId="1" r:id="rId1"/>
@@ -1036,9 +1036,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -1050,8 +1047,22 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1062,23 +1073,43 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -1100,41 +1131,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1143,6 +1142,7 @@
     <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal 6" xfId="9" xr:uid="{F01ACF4B-7754-47AE-81B3-9C88FFBDF027}"/>
     <cellStyle name="Style 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1622,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2271,7 +2271,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -2296,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="S1" s="39"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="103" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
@@ -2313,7 +2313,7 @@
       <c r="AD1" s="82"/>
       <c r="AE1" s="82"/>
       <c r="AF1" s="88" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="AG1" s="82"/>
       <c r="AH1" s="82"/>
@@ -2322,14 +2322,14 @@
       <c r="AK1" s="82"/>
       <c r="AL1" s="82"/>
       <c r="AM1" s="82"/>
-      <c r="AN1" s="108" t="s">
+      <c r="AN1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
     </row>
     <row r="2" spans="1:42" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -2445,7 +2445,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
@@ -2565,8 +2565,8 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -5199,6 +5199,7 @@
       <c r="AP58" s="58"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="456pv3wkUfOzsm0YxqcLHGmMgsvEfPjoY/gK2Y7Hk/vjdQTQ78qhkBaMCtIPyF28sUpaN7wqV1I7SEf1Qaxlhw==" saltValue="OzmMpX4TeE+DVXi1Xf1m0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
@@ -5216,8 +5217,6 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A1:G1"/>
@@ -5250,6 +5249,8 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="E54:F54"/>
@@ -5269,7 +5270,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5277,7 +5278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5926,7 +5927,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -5936,7 +5937,7 @@
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="129" t="s">
         <v>44</v>
       </c>
       <c r="J1" s="82"/>
@@ -5951,14 +5952,14 @@
         <v>2</v>
       </c>
       <c r="S1" s="8"/>
-      <c r="T1" s="120" t="s">
+      <c r="T1" s="131" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
       <c r="V1" s="82"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="82"/>
@@ -5967,7 +5968,7 @@
       <c r="AC1" s="82"/>
       <c r="AD1" s="82"/>
       <c r="AE1" s="82"/>
-      <c r="AF1" s="118" t="s">
+      <c r="AF1" s="129" t="s">
         <v>36</v>
       </c>
       <c r="AG1" s="82"/>
@@ -5977,17 +5978,17 @@
       <c r="AK1" s="82"/>
       <c r="AL1" s="82"/>
       <c r="AM1" s="82"/>
-      <c r="AN1" s="118" t="s">
+      <c r="AN1" s="129" t="s">
         <v>47</v>
       </c>
       <c r="AO1" s="82"/>
       <c r="AP1" s="82"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="92"/>
@@ -6089,18 +6090,18 @@
         <v>30</v>
       </c>
       <c r="AM2" s="4"/>
-      <c r="AN2" s="117" t="s">
+      <c r="AN2" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="117" t="s">
+      <c r="AO2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="115" t="s">
+      <c r="AP2" s="126" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:42" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6220,12 +6221,12 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="132" t="s">
         <v>45</v>
       </c>
       <c r="K4" s="67"/>
@@ -6275,7 +6276,7 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="111"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="16"/>
@@ -6323,7 +6324,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="111"/>
+      <c r="J6" s="106"/>
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
       <c r="M6" s="16"/>
@@ -6371,7 +6372,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="111"/>
+      <c r="J7" s="106"/>
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
       <c r="M7" s="16"/>
@@ -6419,7 +6420,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="111"/>
+      <c r="J8" s="106"/>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
       <c r="M8" s="16"/>
@@ -6467,7 +6468,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="111"/>
+      <c r="J9" s="106"/>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="16"/>
@@ -6515,7 +6516,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="111"/>
+      <c r="J10" s="106"/>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="16"/>
@@ -6563,7 +6564,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="111"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="67"/>
       <c r="L11" s="67"/>
       <c r="M11" s="16"/>
@@ -6611,7 +6612,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="111"/>
+      <c r="J12" s="106"/>
       <c r="K12" s="67"/>
       <c r="L12" s="67"/>
       <c r="M12" s="16"/>
@@ -6659,7 +6660,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="111"/>
+      <c r="J13" s="106"/>
       <c r="K13" s="67"/>
       <c r="L13" s="67"/>
       <c r="M13" s="16"/>
@@ -6707,7 +6708,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="111"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="67"/>
       <c r="L14" s="67"/>
       <c r="M14" s="16"/>
@@ -6755,7 +6756,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="111"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="67"/>
       <c r="L15" s="67"/>
       <c r="M15" s="16"/>
@@ -6803,7 +6804,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="111"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="67"/>
       <c r="L16" s="67"/>
       <c r="M16" s="16"/>
@@ -6851,7 +6852,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="111"/>
+      <c r="J17" s="106"/>
       <c r="K17" s="67"/>
       <c r="L17" s="67"/>
       <c r="M17" s="16"/>
@@ -6899,7 +6900,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="111"/>
+      <c r="J18" s="106"/>
       <c r="K18" s="67"/>
       <c r="L18" s="67"/>
       <c r="M18" s="16"/>
@@ -6947,7 +6948,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="111"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
       <c r="M19" s="16"/>
@@ -6995,7 +6996,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="111"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="67"/>
       <c r="L20" s="67"/>
       <c r="M20" s="16"/>
@@ -7043,7 +7044,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="111"/>
+      <c r="J21" s="106"/>
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
       <c r="M21" s="16"/>
@@ -7091,7 +7092,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="111"/>
+      <c r="J22" s="106"/>
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
       <c r="M22" s="16"/>
@@ -7139,7 +7140,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="111"/>
+      <c r="J23" s="106"/>
       <c r="K23" s="67"/>
       <c r="L23" s="67"/>
       <c r="M23" s="16"/>
@@ -7187,7 +7188,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="111"/>
+      <c r="J24" s="106"/>
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
       <c r="M24" s="16"/>
@@ -7235,7 +7236,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="111"/>
+      <c r="J25" s="106"/>
       <c r="K25" s="67"/>
       <c r="L25" s="67"/>
       <c r="M25" s="16"/>
@@ -7283,7 +7284,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="111"/>
+      <c r="J26" s="106"/>
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
       <c r="M26" s="16"/>
@@ -7331,7 +7332,7 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="111"/>
+      <c r="J27" s="106"/>
       <c r="K27" s="67"/>
       <c r="L27" s="67"/>
       <c r="M27" s="16"/>
@@ -7379,7 +7380,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="111"/>
+      <c r="J28" s="106"/>
       <c r="K28" s="67"/>
       <c r="L28" s="67"/>
       <c r="M28" s="16"/>
@@ -7427,7 +7428,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="111"/>
+      <c r="J29" s="106"/>
       <c r="K29" s="67"/>
       <c r="L29" s="67"/>
       <c r="M29" s="16"/>
@@ -7475,7 +7476,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="111"/>
+      <c r="J30" s="106"/>
       <c r="K30" s="67"/>
       <c r="L30" s="67"/>
       <c r="M30" s="16"/>
@@ -7523,7 +7524,7 @@
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="111"/>
+      <c r="J31" s="106"/>
       <c r="K31" s="67"/>
       <c r="L31" s="67"/>
       <c r="M31" s="16"/>
@@ -7571,7 +7572,7 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="111"/>
+      <c r="J32" s="106"/>
       <c r="K32" s="67"/>
       <c r="L32" s="67"/>
       <c r="M32" s="16"/>
@@ -7619,7 +7620,7 @@
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="111"/>
+      <c r="J33" s="106"/>
       <c r="K33" s="67"/>
       <c r="L33" s="67"/>
       <c r="M33" s="16"/>
@@ -7667,7 +7668,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="111"/>
+      <c r="J34" s="106"/>
       <c r="K34" s="67"/>
       <c r="L34" s="67"/>
       <c r="M34" s="16"/>
@@ -7715,7 +7716,7 @@
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="111"/>
+      <c r="J35" s="106"/>
       <c r="K35" s="67"/>
       <c r="L35" s="67"/>
       <c r="M35" s="16"/>
@@ -7763,7 +7764,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
-      <c r="J36" s="111"/>
+      <c r="J36" s="106"/>
       <c r="K36" s="67"/>
       <c r="L36" s="67"/>
       <c r="M36" s="16"/>
@@ -7811,7 +7812,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="111"/>
+      <c r="J37" s="106"/>
       <c r="K37" s="67"/>
       <c r="L37" s="67"/>
       <c r="M37" s="16"/>
@@ -7859,7 +7860,7 @@
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="111"/>
+      <c r="J38" s="106"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
       <c r="M38" s="16"/>
@@ -7907,7 +7908,7 @@
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
-      <c r="J39" s="111"/>
+      <c r="J39" s="106"/>
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="16"/>
@@ -7955,7 +7956,7 @@
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
-      <c r="J40" s="111"/>
+      <c r="J40" s="106"/>
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="16"/>
@@ -8003,7 +8004,7 @@
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
-      <c r="J41" s="111"/>
+      <c r="J41" s="106"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
       <c r="M41" s="16"/>
@@ -8051,7 +8052,7 @@
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
-      <c r="J42" s="111"/>
+      <c r="J42" s="106"/>
       <c r="K42" s="67"/>
       <c r="L42" s="67"/>
       <c r="M42" s="16"/>
@@ -8099,7 +8100,7 @@
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
-      <c r="J43" s="111"/>
+      <c r="J43" s="106"/>
       <c r="K43" s="67"/>
       <c r="L43" s="67"/>
       <c r="M43" s="16"/>
@@ -8147,7 +8148,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="111"/>
+      <c r="J44" s="106"/>
       <c r="K44" s="67"/>
       <c r="L44" s="67"/>
       <c r="M44" s="16"/>
@@ -8195,7 +8196,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="111"/>
+      <c r="J45" s="106"/>
       <c r="K45" s="67"/>
       <c r="L45" s="67"/>
       <c r="M45" s="16"/>
@@ -8243,7 +8244,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="111"/>
+      <c r="J46" s="106"/>
       <c r="K46" s="67"/>
       <c r="L46" s="67"/>
       <c r="M46" s="16"/>
@@ -8291,7 +8292,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
-      <c r="J47" s="111"/>
+      <c r="J47" s="106"/>
       <c r="K47" s="67"/>
       <c r="L47" s="67"/>
       <c r="M47" s="16"/>
@@ -8339,7 +8340,7 @@
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
-      <c r="J48" s="111"/>
+      <c r="J48" s="106"/>
       <c r="K48" s="67"/>
       <c r="L48" s="67"/>
       <c r="M48" s="16"/>
@@ -8387,7 +8388,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
-      <c r="J49" s="111"/>
+      <c r="J49" s="106"/>
       <c r="K49" s="67"/>
       <c r="L49" s="67"/>
       <c r="M49" s="16"/>
@@ -8435,7 +8436,7 @@
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-      <c r="J50" s="111"/>
+      <c r="J50" s="106"/>
       <c r="K50" s="67"/>
       <c r="L50" s="67"/>
       <c r="M50" s="16"/>
@@ -8483,7 +8484,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
-      <c r="J51" s="111"/>
+      <c r="J51" s="106"/>
       <c r="K51" s="67"/>
       <c r="L51" s="67"/>
       <c r="M51" s="16"/>
@@ -8531,7 +8532,7 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="111"/>
+      <c r="J52" s="106"/>
       <c r="K52" s="67"/>
       <c r="L52" s="67"/>
       <c r="M52" s="16"/>
@@ -8579,7 +8580,7 @@
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
-      <c r="J53" s="111"/>
+      <c r="J53" s="106"/>
       <c r="K53" s="67"/>
       <c r="L53" s="67"/>
       <c r="M53" s="16"/>
@@ -8627,7 +8628,7 @@
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="111"/>
+      <c r="J54" s="106"/>
       <c r="K54" s="67"/>
       <c r="L54" s="67"/>
       <c r="M54" s="16"/>
@@ -8675,7 +8676,7 @@
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
-      <c r="J55" s="111"/>
+      <c r="J55" s="106"/>
       <c r="K55" s="67"/>
       <c r="L55" s="67"/>
       <c r="M55" s="16"/>
@@ -8723,7 +8724,7 @@
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
-      <c r="J56" s="111"/>
+      <c r="J56" s="106"/>
       <c r="K56" s="67"/>
       <c r="L56" s="67"/>
       <c r="M56" s="16"/>
@@ -8771,7 +8772,7 @@
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
-      <c r="J57" s="111"/>
+      <c r="J57" s="106"/>
       <c r="K57" s="67"/>
       <c r="L57" s="67"/>
       <c r="M57" s="16"/>
@@ -8814,7 +8815,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
@@ -8856,6 +8857,7 @@
       <c r="AP58" s="61"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="2mDvb2SbmMInYXymTRuJz+41FrmjEauJIAN7U8e+gJZhXG5PIA3ih/xQ/hvhhQW3Z80PdE0j+N7vk36wf+8Kkg==" saltValue="tfkSzj3ePAqoXeJ1BoOcBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="67">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
@@ -8873,9 +8875,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="E29:F29"/>
@@ -8886,13 +8885,15 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="J4:J58"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E30:F30"/>
@@ -8905,16 +8906,10 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="AF1:AM1"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E47:F47"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E16:F16"/>
@@ -8924,10 +8919,17 @@
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8936,7 +8938,7 @@
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A112" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8957,7 +8959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -9606,7 +9608,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -9631,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="S1" s="39"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="103" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
@@ -9657,14 +9659,14 @@
       <c r="AK1" s="82"/>
       <c r="AL1" s="82"/>
       <c r="AM1" s="82"/>
-      <c r="AN1" s="108" t="s">
+      <c r="AN1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
     </row>
     <row r="2" spans="1:42" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -9782,7 +9784,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
@@ -9904,9 +9906,9 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="102" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="105" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="62"/>
@@ -9934,16 +9936,16 @@
       <c r="AD4" s="62"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="16"/>
-      <c r="AG4" s="102" t="s">
+      <c r="AG4" s="105" t="s">
         <v>30</v>
       </c>
       <c r="AH4" s="16"/>
-      <c r="AI4" s="102" t="s">
+      <c r="AI4" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
       <c r="AO4" s="76" t="s">
@@ -9960,7 +9962,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="87"/>
       <c r="F5" s="86"/>
-      <c r="G5" s="111"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="63"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -9986,12 +9988,12 @@
       <c r="AD5" s="62"/>
       <c r="AE5" s="62"/>
       <c r="AF5" s="16"/>
-      <c r="AG5" s="111"/>
+      <c r="AG5" s="106"/>
       <c r="AH5" s="24"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
       <c r="AM5" s="16"/>
       <c r="AN5" s="24"/>
       <c r="AO5" s="69" t="s">
@@ -10008,7 +10010,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="87"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="111"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="63"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -10034,12 +10036,12 @@
       <c r="AD6" s="62"/>
       <c r="AE6" s="62"/>
       <c r="AF6" s="16"/>
-      <c r="AG6" s="111"/>
+      <c r="AG6" s="106"/>
       <c r="AH6" s="24"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="110"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
       <c r="AM6" s="16"/>
       <c r="AN6" s="24"/>
       <c r="AO6" s="69" t="s">
@@ -10056,7 +10058,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="87"/>
       <c r="F7" s="86"/>
-      <c r="G7" s="111"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="63"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -10082,12 +10084,12 @@
       <c r="AD7" s="62"/>
       <c r="AE7" s="62"/>
       <c r="AF7" s="16"/>
-      <c r="AG7" s="111"/>
+      <c r="AG7" s="106"/>
       <c r="AH7" s="24"/>
-      <c r="AI7" s="104"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
+      <c r="AI7" s="109"/>
+      <c r="AJ7" s="110"/>
+      <c r="AK7" s="110"/>
+      <c r="AL7" s="110"/>
       <c r="AM7" s="16"/>
       <c r="AN7" s="24"/>
       <c r="AO7" s="69" t="s">
@@ -10104,7 +10106,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="87"/>
       <c r="F8" s="86"/>
-      <c r="G8" s="111"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="63"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -10130,12 +10132,12 @@
       <c r="AD8" s="62"/>
       <c r="AE8" s="62"/>
       <c r="AF8" s="16"/>
-      <c r="AG8" s="111"/>
+      <c r="AG8" s="106"/>
       <c r="AH8" s="24"/>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
+      <c r="AI8" s="109"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="24"/>
       <c r="AO8" s="69" t="s">
@@ -10152,7 +10154,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="87"/>
       <c r="F9" s="86"/>
-      <c r="G9" s="111"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="63"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -10178,12 +10180,12 @@
       <c r="AD9" s="62"/>
       <c r="AE9" s="62"/>
       <c r="AF9" s="16"/>
-      <c r="AG9" s="111"/>
+      <c r="AG9" s="106"/>
       <c r="AH9" s="24"/>
-      <c r="AI9" s="104"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="105"/>
-      <c r="AL9" s="105"/>
+      <c r="AI9" s="109"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
       <c r="AM9" s="16"/>
       <c r="AN9" s="24"/>
       <c r="AO9" s="69" t="s">
@@ -10200,7 +10202,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="87"/>
       <c r="F10" s="86"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="63"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -10226,12 +10228,12 @@
       <c r="AD10" s="62"/>
       <c r="AE10" s="62"/>
       <c r="AF10" s="16"/>
-      <c r="AG10" s="111"/>
+      <c r="AG10" s="106"/>
       <c r="AH10" s="24"/>
-      <c r="AI10" s="104"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="105"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
       <c r="AM10" s="16"/>
       <c r="AN10" s="24"/>
       <c r="AO10" s="69" t="s">
@@ -10248,7 +10250,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="87"/>
       <c r="F11" s="86"/>
-      <c r="G11" s="111"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="63"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -10274,12 +10276,12 @@
       <c r="AD11" s="62"/>
       <c r="AE11" s="62"/>
       <c r="AF11" s="16"/>
-      <c r="AG11" s="111"/>
+      <c r="AG11" s="106"/>
       <c r="AH11" s="24"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="105"/>
-      <c r="AL11" s="105"/>
+      <c r="AI11" s="109"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
       <c r="AM11" s="16"/>
       <c r="AN11" s="24"/>
       <c r="AO11" s="69" t="s">
@@ -10296,7 +10298,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="87"/>
       <c r="F12" s="86"/>
-      <c r="G12" s="111"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="63"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -10322,12 +10324,12 @@
       <c r="AD12" s="62"/>
       <c r="AE12" s="62"/>
       <c r="AF12" s="16"/>
-      <c r="AG12" s="111"/>
+      <c r="AG12" s="106"/>
       <c r="AH12" s="24"/>
-      <c r="AI12" s="104"/>
-      <c r="AJ12" s="105"/>
-      <c r="AK12" s="105"/>
-      <c r="AL12" s="105"/>
+      <c r="AI12" s="109"/>
+      <c r="AJ12" s="110"/>
+      <c r="AK12" s="110"/>
+      <c r="AL12" s="110"/>
       <c r="AM12" s="16"/>
       <c r="AN12" s="24"/>
       <c r="AO12" s="69" t="s">
@@ -10344,7 +10346,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="87"/>
       <c r="F13" s="86"/>
-      <c r="G13" s="111"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="63"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -10370,12 +10372,12 @@
       <c r="AD13" s="62"/>
       <c r="AE13" s="62"/>
       <c r="AF13" s="16"/>
-      <c r="AG13" s="111"/>
+      <c r="AG13" s="106"/>
       <c r="AH13" s="24"/>
-      <c r="AI13" s="104"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="105"/>
+      <c r="AI13" s="109"/>
+      <c r="AJ13" s="110"/>
+      <c r="AK13" s="110"/>
+      <c r="AL13" s="110"/>
       <c r="AM13" s="16"/>
       <c r="AN13" s="24"/>
       <c r="AO13" s="69" t="s">
@@ -10392,7 +10394,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="87"/>
       <c r="F14" s="86"/>
-      <c r="G14" s="111"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="63"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -10418,12 +10420,12 @@
       <c r="AD14" s="62"/>
       <c r="AE14" s="62"/>
       <c r="AF14" s="16"/>
-      <c r="AG14" s="111"/>
+      <c r="AG14" s="106"/>
       <c r="AH14" s="24"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="105"/>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="110"/>
+      <c r="AL14" s="110"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="24"/>
       <c r="AO14" s="69" t="s">
@@ -10440,7 +10442,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="63"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -10466,12 +10468,12 @@
       <c r="AD15" s="62"/>
       <c r="AE15" s="62"/>
       <c r="AF15" s="16"/>
-      <c r="AG15" s="111"/>
+      <c r="AG15" s="106"/>
       <c r="AH15" s="24"/>
-      <c r="AI15" s="104"/>
-      <c r="AJ15" s="105"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
+      <c r="AI15" s="109"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
       <c r="AM15" s="16"/>
       <c r="AN15" s="24"/>
       <c r="AO15" s="69" t="s">
@@ -10488,7 +10490,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="87"/>
       <c r="F16" s="86"/>
-      <c r="G16" s="111"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="63"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -10514,12 +10516,12 @@
       <c r="AD16" s="62"/>
       <c r="AE16" s="62"/>
       <c r="AF16" s="16"/>
-      <c r="AG16" s="111"/>
+      <c r="AG16" s="106"/>
       <c r="AH16" s="24"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="105"/>
-      <c r="AK16" s="105"/>
-      <c r="AL16" s="105"/>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="110"/>
+      <c r="AK16" s="110"/>
+      <c r="AL16" s="110"/>
       <c r="AM16" s="16"/>
       <c r="AN16" s="24"/>
       <c r="AO16" s="69" t="s">
@@ -10536,7 +10538,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="87"/>
       <c r="F17" s="86"/>
-      <c r="G17" s="111"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="63"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -10562,12 +10564,12 @@
       <c r="AD17" s="62"/>
       <c r="AE17" s="62"/>
       <c r="AF17" s="16"/>
-      <c r="AG17" s="111"/>
+      <c r="AG17" s="106"/>
       <c r="AH17" s="24"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="105"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="105"/>
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="110"/>
       <c r="AM17" s="16"/>
       <c r="AN17" s="24"/>
       <c r="AO17" s="69" t="s">
@@ -10584,7 +10586,7 @@
       <c r="D18" s="27"/>
       <c r="E18" s="87"/>
       <c r="F18" s="86"/>
-      <c r="G18" s="111"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="63"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -10610,12 +10612,12 @@
       <c r="AD18" s="62"/>
       <c r="AE18" s="62"/>
       <c r="AF18" s="16"/>
-      <c r="AG18" s="111"/>
+      <c r="AG18" s="106"/>
       <c r="AH18" s="24"/>
-      <c r="AI18" s="104"/>
-      <c r="AJ18" s="105"/>
-      <c r="AK18" s="105"/>
-      <c r="AL18" s="105"/>
+      <c r="AI18" s="109"/>
+      <c r="AJ18" s="110"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="110"/>
       <c r="AM18" s="16"/>
       <c r="AN18" s="24"/>
       <c r="AO18" s="69" t="s">
@@ -10632,7 +10634,7 @@
       <c r="D19" s="27"/>
       <c r="E19" s="87"/>
       <c r="F19" s="86"/>
-      <c r="G19" s="111"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="63"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -10658,12 +10660,12 @@
       <c r="AD19" s="62"/>
       <c r="AE19" s="62"/>
       <c r="AF19" s="16"/>
-      <c r="AG19" s="111"/>
+      <c r="AG19" s="106"/>
       <c r="AH19" s="24"/>
-      <c r="AI19" s="104"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="105"/>
+      <c r="AI19" s="109"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="110"/>
       <c r="AM19" s="16"/>
       <c r="AN19" s="24"/>
       <c r="AO19" s="69" t="s">
@@ -10680,7 +10682,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="87"/>
       <c r="F20" s="86"/>
-      <c r="G20" s="111"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="63"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -10706,12 +10708,12 @@
       <c r="AD20" s="62"/>
       <c r="AE20" s="62"/>
       <c r="AF20" s="16"/>
-      <c r="AG20" s="111"/>
+      <c r="AG20" s="106"/>
       <c r="AH20" s="24"/>
-      <c r="AI20" s="104"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="105"/>
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="110"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="24"/>
       <c r="AO20" s="69" t="s">
@@ -10728,7 +10730,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="87"/>
       <c r="F21" s="86"/>
-      <c r="G21" s="111"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="63"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -10754,12 +10756,12 @@
       <c r="AD21" s="62"/>
       <c r="AE21" s="62"/>
       <c r="AF21" s="16"/>
-      <c r="AG21" s="111"/>
+      <c r="AG21" s="106"/>
       <c r="AH21" s="24"/>
-      <c r="AI21" s="104"/>
-      <c r="AJ21" s="105"/>
-      <c r="AK21" s="105"/>
-      <c r="AL21" s="105"/>
+      <c r="AI21" s="109"/>
+      <c r="AJ21" s="110"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="110"/>
       <c r="AM21" s="16"/>
       <c r="AN21" s="24"/>
       <c r="AO21" s="69" t="s">
@@ -10776,7 +10778,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="87"/>
       <c r="F22" s="86"/>
-      <c r="G22" s="111"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="63"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -10802,12 +10804,12 @@
       <c r="AD22" s="62"/>
       <c r="AE22" s="62"/>
       <c r="AF22" s="16"/>
-      <c r="AG22" s="111"/>
+      <c r="AG22" s="106"/>
       <c r="AH22" s="24"/>
-      <c r="AI22" s="104"/>
-      <c r="AJ22" s="105"/>
-      <c r="AK22" s="105"/>
-      <c r="AL22" s="105"/>
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="110"/>
+      <c r="AK22" s="110"/>
+      <c r="AL22" s="110"/>
       <c r="AM22" s="16"/>
       <c r="AN22" s="24"/>
       <c r="AO22" s="69" t="s">
@@ -10824,7 +10826,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="87"/>
       <c r="F23" s="86"/>
-      <c r="G23" s="111"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="63"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -10850,12 +10852,12 @@
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
       <c r="AF23" s="16"/>
-      <c r="AG23" s="111"/>
+      <c r="AG23" s="106"/>
       <c r="AH23" s="24"/>
-      <c r="AI23" s="104"/>
-      <c r="AJ23" s="105"/>
-      <c r="AK23" s="105"/>
-      <c r="AL23" s="105"/>
+      <c r="AI23" s="109"/>
+      <c r="AJ23" s="110"/>
+      <c r="AK23" s="110"/>
+      <c r="AL23" s="110"/>
       <c r="AM23" s="16"/>
       <c r="AN23" s="24"/>
       <c r="AO23" s="69" t="s">
@@ -10872,7 +10874,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="87"/>
       <c r="F24" s="86"/>
-      <c r="G24" s="111"/>
+      <c r="G24" s="106"/>
       <c r="H24" s="63"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -10898,12 +10900,12 @@
       <c r="AD24" s="62"/>
       <c r="AE24" s="62"/>
       <c r="AF24" s="16"/>
-      <c r="AG24" s="111"/>
+      <c r="AG24" s="106"/>
       <c r="AH24" s="24"/>
-      <c r="AI24" s="104"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="105"/>
+      <c r="AI24" s="109"/>
+      <c r="AJ24" s="110"/>
+      <c r="AK24" s="110"/>
+      <c r="AL24" s="110"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="24"/>
       <c r="AO24" s="69" t="s">
@@ -10918,9 +10920,9 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="86"/>
-      <c r="G25" s="111"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="63"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -10946,12 +10948,12 @@
       <c r="AD25" s="62"/>
       <c r="AE25" s="62"/>
       <c r="AF25" s="16"/>
-      <c r="AG25" s="111"/>
+      <c r="AG25" s="106"/>
       <c r="AH25" s="24"/>
-      <c r="AI25" s="104"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
+      <c r="AI25" s="109"/>
+      <c r="AJ25" s="110"/>
+      <c r="AK25" s="110"/>
+      <c r="AL25" s="110"/>
       <c r="AM25" s="16"/>
       <c r="AN25" s="24"/>
       <c r="AO25" s="69" t="s">
@@ -10966,9 +10968,9 @@
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="110"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="86"/>
-      <c r="G26" s="111"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="63"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -10994,12 +10996,12 @@
       <c r="AD26" s="62"/>
       <c r="AE26" s="62"/>
       <c r="AF26" s="16"/>
-      <c r="AG26" s="111"/>
+      <c r="AG26" s="106"/>
       <c r="AH26" s="24"/>
-      <c r="AI26" s="104"/>
-      <c r="AJ26" s="105"/>
-      <c r="AK26" s="105"/>
-      <c r="AL26" s="105"/>
+      <c r="AI26" s="109"/>
+      <c r="AJ26" s="110"/>
+      <c r="AK26" s="110"/>
+      <c r="AL26" s="110"/>
       <c r="AM26" s="16"/>
       <c r="AN26" s="24"/>
       <c r="AO26" s="69" t="s">
@@ -11014,9 +11016,9 @@
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="86"/>
-      <c r="G27" s="111"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="63"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -11042,12 +11044,12 @@
       <c r="AD27" s="62"/>
       <c r="AE27" s="62"/>
       <c r="AF27" s="16"/>
-      <c r="AG27" s="111"/>
+      <c r="AG27" s="106"/>
       <c r="AH27" s="24"/>
-      <c r="AI27" s="104"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="105"/>
-      <c r="AL27" s="105"/>
+      <c r="AI27" s="109"/>
+      <c r="AJ27" s="110"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="110"/>
       <c r="AM27" s="16"/>
       <c r="AN27" s="24"/>
       <c r="AO27" s="69" t="s">
@@ -11062,9 +11064,9 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="86"/>
-      <c r="G28" s="111"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="63"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -11090,12 +11092,12 @@
       <c r="AD28" s="62"/>
       <c r="AE28" s="62"/>
       <c r="AF28" s="16"/>
-      <c r="AG28" s="111"/>
+      <c r="AG28" s="106"/>
       <c r="AH28" s="24"/>
-      <c r="AI28" s="104"/>
-      <c r="AJ28" s="105"/>
-      <c r="AK28" s="105"/>
-      <c r="AL28" s="105"/>
+      <c r="AI28" s="109"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
       <c r="AM28" s="16"/>
       <c r="AN28" s="24"/>
       <c r="AO28" s="69" t="s">
@@ -11110,9 +11112,9 @@
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="86"/>
-      <c r="G29" s="111"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="63"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -11138,12 +11140,12 @@
       <c r="AD29" s="62"/>
       <c r="AE29" s="62"/>
       <c r="AF29" s="16"/>
-      <c r="AG29" s="111"/>
+      <c r="AG29" s="106"/>
       <c r="AH29" s="24"/>
-      <c r="AI29" s="104"/>
-      <c r="AJ29" s="105"/>
-      <c r="AK29" s="105"/>
-      <c r="AL29" s="105"/>
+      <c r="AI29" s="109"/>
+      <c r="AJ29" s="110"/>
+      <c r="AK29" s="110"/>
+      <c r="AL29" s="110"/>
       <c r="AM29" s="16"/>
       <c r="AN29" s="24"/>
       <c r="AO29" s="69" t="s">
@@ -11158,9 +11160,9 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="110"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="86"/>
-      <c r="G30" s="111"/>
+      <c r="G30" s="106"/>
       <c r="H30" s="63"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -11186,12 +11188,12 @@
       <c r="AD30" s="62"/>
       <c r="AE30" s="62"/>
       <c r="AF30" s="16"/>
-      <c r="AG30" s="111"/>
+      <c r="AG30" s="106"/>
       <c r="AH30" s="24"/>
-      <c r="AI30" s="104"/>
-      <c r="AJ30" s="105"/>
-      <c r="AK30" s="105"/>
-      <c r="AL30" s="105"/>
+      <c r="AI30" s="109"/>
+      <c r="AJ30" s="110"/>
+      <c r="AK30" s="110"/>
+      <c r="AL30" s="110"/>
       <c r="AM30" s="16"/>
       <c r="AN30" s="24"/>
       <c r="AO30" s="69" t="s">
@@ -11206,9 +11208,9 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="86"/>
-      <c r="G31" s="111"/>
+      <c r="G31" s="106"/>
       <c r="H31" s="63"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -11234,12 +11236,12 @@
       <c r="AD31" s="62"/>
       <c r="AE31" s="62"/>
       <c r="AF31" s="16"/>
-      <c r="AG31" s="111"/>
+      <c r="AG31" s="106"/>
       <c r="AH31" s="24"/>
-      <c r="AI31" s="104"/>
-      <c r="AJ31" s="105"/>
-      <c r="AK31" s="105"/>
-      <c r="AL31" s="105"/>
+      <c r="AI31" s="109"/>
+      <c r="AJ31" s="110"/>
+      <c r="AK31" s="110"/>
+      <c r="AL31" s="110"/>
       <c r="AM31" s="16"/>
       <c r="AN31" s="24"/>
       <c r="AO31" s="69" t="s">
@@ -11254,9 +11256,9 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="86"/>
-      <c r="G32" s="111"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="63"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -11282,12 +11284,12 @@
       <c r="AD32" s="62"/>
       <c r="AE32" s="62"/>
       <c r="AF32" s="16"/>
-      <c r="AG32" s="111"/>
+      <c r="AG32" s="106"/>
       <c r="AH32" s="24"/>
-      <c r="AI32" s="104"/>
-      <c r="AJ32" s="105"/>
-      <c r="AK32" s="105"/>
-      <c r="AL32" s="105"/>
+      <c r="AI32" s="109"/>
+      <c r="AJ32" s="110"/>
+      <c r="AK32" s="110"/>
+      <c r="AL32" s="110"/>
       <c r="AM32" s="16"/>
       <c r="AN32" s="24"/>
       <c r="AO32" s="69" t="s">
@@ -11302,9 +11304,9 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="86"/>
-      <c r="G33" s="111"/>
+      <c r="G33" s="106"/>
       <c r="H33" s="63"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -11330,12 +11332,12 @@
       <c r="AD33" s="62"/>
       <c r="AE33" s="62"/>
       <c r="AF33" s="16"/>
-      <c r="AG33" s="111"/>
+      <c r="AG33" s="106"/>
       <c r="AH33" s="24"/>
-      <c r="AI33" s="104"/>
-      <c r="AJ33" s="105"/>
-      <c r="AK33" s="105"/>
-      <c r="AL33" s="105"/>
+      <c r="AI33" s="109"/>
+      <c r="AJ33" s="110"/>
+      <c r="AK33" s="110"/>
+      <c r="AL33" s="110"/>
       <c r="AM33" s="16"/>
       <c r="AN33" s="24"/>
       <c r="AO33" s="69" t="s">
@@ -11350,9 +11352,9 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="86"/>
-      <c r="G34" s="111"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="63"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -11378,12 +11380,12 @@
       <c r="AD34" s="62"/>
       <c r="AE34" s="62"/>
       <c r="AF34" s="16"/>
-      <c r="AG34" s="111"/>
+      <c r="AG34" s="106"/>
       <c r="AH34" s="24"/>
-      <c r="AI34" s="104"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="105"/>
-      <c r="AL34" s="105"/>
+      <c r="AI34" s="109"/>
+      <c r="AJ34" s="110"/>
+      <c r="AK34" s="110"/>
+      <c r="AL34" s="110"/>
       <c r="AM34" s="16"/>
       <c r="AN34" s="24"/>
       <c r="AO34" s="69" t="s">
@@ -11398,9 +11400,9 @@
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="110"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="86"/>
-      <c r="G35" s="111"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="63"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -11426,12 +11428,12 @@
       <c r="AD35" s="62"/>
       <c r="AE35" s="62"/>
       <c r="AF35" s="16"/>
-      <c r="AG35" s="111"/>
+      <c r="AG35" s="106"/>
       <c r="AH35" s="24"/>
-      <c r="AI35" s="104"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="105"/>
-      <c r="AL35" s="105"/>
+      <c r="AI35" s="109"/>
+      <c r="AJ35" s="110"/>
+      <c r="AK35" s="110"/>
+      <c r="AL35" s="110"/>
       <c r="AM35" s="16"/>
       <c r="AN35" s="24"/>
       <c r="AO35" s="69" t="s">
@@ -11446,9 +11448,9 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="86"/>
-      <c r="G36" s="111"/>
+      <c r="G36" s="106"/>
       <c r="H36" s="63"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -11474,12 +11476,12 @@
       <c r="AD36" s="62"/>
       <c r="AE36" s="62"/>
       <c r="AF36" s="16"/>
-      <c r="AG36" s="111"/>
+      <c r="AG36" s="106"/>
       <c r="AH36" s="24"/>
-      <c r="AI36" s="104"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="105"/>
-      <c r="AL36" s="105"/>
+      <c r="AI36" s="109"/>
+      <c r="AJ36" s="110"/>
+      <c r="AK36" s="110"/>
+      <c r="AL36" s="110"/>
       <c r="AM36" s="16"/>
       <c r="AN36" s="24"/>
       <c r="AO36" s="69" t="s">
@@ -11494,9 +11496,9 @@
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="86"/>
-      <c r="G37" s="111"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="63"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -11522,12 +11524,12 @@
       <c r="AD37" s="62"/>
       <c r="AE37" s="62"/>
       <c r="AF37" s="16"/>
-      <c r="AG37" s="111"/>
+      <c r="AG37" s="106"/>
       <c r="AH37" s="24"/>
-      <c r="AI37" s="104"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="105"/>
-      <c r="AL37" s="105"/>
+      <c r="AI37" s="109"/>
+      <c r="AJ37" s="110"/>
+      <c r="AK37" s="110"/>
+      <c r="AL37" s="110"/>
       <c r="AM37" s="16"/>
       <c r="AN37" s="24"/>
       <c r="AO37" s="69" t="s">
@@ -11542,9 +11544,9 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="110"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="86"/>
-      <c r="G38" s="111"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="63"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -11570,12 +11572,12 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="62"/>
       <c r="AF38" s="16"/>
-      <c r="AG38" s="111"/>
+      <c r="AG38" s="106"/>
       <c r="AH38" s="24"/>
-      <c r="AI38" s="104"/>
-      <c r="AJ38" s="105"/>
-      <c r="AK38" s="105"/>
-      <c r="AL38" s="105"/>
+      <c r="AI38" s="109"/>
+      <c r="AJ38" s="110"/>
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="110"/>
       <c r="AM38" s="16"/>
       <c r="AN38" s="24"/>
       <c r="AO38" s="69" t="s">
@@ -11590,9 +11592,9 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="110"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="86"/>
-      <c r="G39" s="111"/>
+      <c r="G39" s="106"/>
       <c r="H39" s="63"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -11618,12 +11620,12 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="62"/>
       <c r="AF39" s="16"/>
-      <c r="AG39" s="111"/>
+      <c r="AG39" s="106"/>
       <c r="AH39" s="24"/>
-      <c r="AI39" s="104"/>
-      <c r="AJ39" s="105"/>
-      <c r="AK39" s="105"/>
-      <c r="AL39" s="105"/>
+      <c r="AI39" s="109"/>
+      <c r="AJ39" s="110"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="110"/>
       <c r="AM39" s="16"/>
       <c r="AN39" s="24"/>
       <c r="AO39" s="69" t="s">
@@ -11638,9 +11640,9 @@
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="110"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="86"/>
-      <c r="G40" s="111"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="63"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
@@ -11666,12 +11668,12 @@
       <c r="AD40" s="62"/>
       <c r="AE40" s="62"/>
       <c r="AF40" s="16"/>
-      <c r="AG40" s="111"/>
+      <c r="AG40" s="106"/>
       <c r="AH40" s="24"/>
-      <c r="AI40" s="104"/>
-      <c r="AJ40" s="105"/>
-      <c r="AK40" s="105"/>
-      <c r="AL40" s="105"/>
+      <c r="AI40" s="109"/>
+      <c r="AJ40" s="110"/>
+      <c r="AK40" s="110"/>
+      <c r="AL40" s="110"/>
       <c r="AM40" s="16"/>
       <c r="AN40" s="24"/>
       <c r="AO40" s="69" t="s">
@@ -11686,9 +11688,9 @@
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="110"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="86"/>
-      <c r="G41" s="111"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="63"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -11714,12 +11716,12 @@
       <c r="AD41" s="62"/>
       <c r="AE41" s="62"/>
       <c r="AF41" s="16"/>
-      <c r="AG41" s="111"/>
+      <c r="AG41" s="106"/>
       <c r="AH41" s="24"/>
-      <c r="AI41" s="104"/>
-      <c r="AJ41" s="105"/>
-      <c r="AK41" s="105"/>
-      <c r="AL41" s="105"/>
+      <c r="AI41" s="109"/>
+      <c r="AJ41" s="110"/>
+      <c r="AK41" s="110"/>
+      <c r="AL41" s="110"/>
       <c r="AM41" s="16"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="69" t="s">
@@ -11734,9 +11736,9 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="86"/>
-      <c r="G42" s="111"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="63"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
@@ -11762,12 +11764,12 @@
       <c r="AD42" s="62"/>
       <c r="AE42" s="62"/>
       <c r="AF42" s="16"/>
-      <c r="AG42" s="111"/>
+      <c r="AG42" s="106"/>
       <c r="AH42" s="24"/>
-      <c r="AI42" s="104"/>
-      <c r="AJ42" s="105"/>
-      <c r="AK42" s="105"/>
-      <c r="AL42" s="105"/>
+      <c r="AI42" s="109"/>
+      <c r="AJ42" s="110"/>
+      <c r="AK42" s="110"/>
+      <c r="AL42" s="110"/>
       <c r="AM42" s="16"/>
       <c r="AN42" s="24"/>
       <c r="AO42" s="69" t="s">
@@ -11782,9 +11784,9 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="86"/>
-      <c r="G43" s="111"/>
+      <c r="G43" s="106"/>
       <c r="H43" s="63"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -11810,12 +11812,12 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="62"/>
       <c r="AF43" s="16"/>
-      <c r="AG43" s="111"/>
+      <c r="AG43" s="106"/>
       <c r="AH43" s="24"/>
-      <c r="AI43" s="104"/>
-      <c r="AJ43" s="105"/>
-      <c r="AK43" s="105"/>
-      <c r="AL43" s="105"/>
+      <c r="AI43" s="109"/>
+      <c r="AJ43" s="110"/>
+      <c r="AK43" s="110"/>
+      <c r="AL43" s="110"/>
       <c r="AM43" s="16"/>
       <c r="AN43" s="24"/>
       <c r="AO43" s="69" t="s">
@@ -11830,9 +11832,9 @@
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="86"/>
-      <c r="G44" s="111"/>
+      <c r="G44" s="106"/>
       <c r="H44" s="63"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
@@ -11858,12 +11860,12 @@
       <c r="AD44" s="62"/>
       <c r="AE44" s="62"/>
       <c r="AF44" s="16"/>
-      <c r="AG44" s="111"/>
+      <c r="AG44" s="106"/>
       <c r="AH44" s="24"/>
-      <c r="AI44" s="104"/>
-      <c r="AJ44" s="105"/>
-      <c r="AK44" s="105"/>
-      <c r="AL44" s="105"/>
+      <c r="AI44" s="109"/>
+      <c r="AJ44" s="110"/>
+      <c r="AK44" s="110"/>
+      <c r="AL44" s="110"/>
       <c r="AM44" s="16"/>
       <c r="AN44" s="24"/>
       <c r="AO44" s="69" t="s">
@@ -11878,9 +11880,9 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="86"/>
-      <c r="G45" s="111"/>
+      <c r="G45" s="106"/>
       <c r="H45" s="63"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
@@ -11906,12 +11908,12 @@
       <c r="AD45" s="62"/>
       <c r="AE45" s="62"/>
       <c r="AF45" s="16"/>
-      <c r="AG45" s="111"/>
+      <c r="AG45" s="106"/>
       <c r="AH45" s="24"/>
-      <c r="AI45" s="104"/>
-      <c r="AJ45" s="105"/>
-      <c r="AK45" s="105"/>
-      <c r="AL45" s="105"/>
+      <c r="AI45" s="109"/>
+      <c r="AJ45" s="110"/>
+      <c r="AK45" s="110"/>
+      <c r="AL45" s="110"/>
       <c r="AM45" s="16"/>
       <c r="AN45" s="24"/>
       <c r="AO45" s="69" t="s">
@@ -11926,9 +11928,9 @@
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="86"/>
-      <c r="G46" s="111"/>
+      <c r="G46" s="106"/>
       <c r="H46" s="63"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -11954,12 +11956,12 @@
       <c r="AD46" s="62"/>
       <c r="AE46" s="62"/>
       <c r="AF46" s="16"/>
-      <c r="AG46" s="111"/>
+      <c r="AG46" s="106"/>
       <c r="AH46" s="24"/>
-      <c r="AI46" s="104"/>
-      <c r="AJ46" s="105"/>
-      <c r="AK46" s="105"/>
-      <c r="AL46" s="105"/>
+      <c r="AI46" s="109"/>
+      <c r="AJ46" s="110"/>
+      <c r="AK46" s="110"/>
+      <c r="AL46" s="110"/>
       <c r="AM46" s="16"/>
       <c r="AN46" s="24"/>
       <c r="AO46" s="69" t="s">
@@ -11974,9 +11976,9 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="86"/>
-      <c r="G47" s="111"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="63"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -12002,12 +12004,12 @@
       <c r="AD47" s="62"/>
       <c r="AE47" s="62"/>
       <c r="AF47" s="16"/>
-      <c r="AG47" s="111"/>
+      <c r="AG47" s="106"/>
       <c r="AH47" s="24"/>
-      <c r="AI47" s="104"/>
-      <c r="AJ47" s="105"/>
-      <c r="AK47" s="105"/>
-      <c r="AL47" s="105"/>
+      <c r="AI47" s="109"/>
+      <c r="AJ47" s="110"/>
+      <c r="AK47" s="110"/>
+      <c r="AL47" s="110"/>
       <c r="AM47" s="16"/>
       <c r="AN47" s="24"/>
       <c r="AO47" s="69" t="s">
@@ -12022,9 +12024,9 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="86"/>
-      <c r="G48" s="111"/>
+      <c r="G48" s="106"/>
       <c r="H48" s="63"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
@@ -12050,12 +12052,12 @@
       <c r="AD48" s="62"/>
       <c r="AE48" s="62"/>
       <c r="AF48" s="16"/>
-      <c r="AG48" s="111"/>
+      <c r="AG48" s="106"/>
       <c r="AH48" s="24"/>
-      <c r="AI48" s="104"/>
-      <c r="AJ48" s="106"/>
-      <c r="AK48" s="106"/>
-      <c r="AL48" s="106"/>
+      <c r="AI48" s="109"/>
+      <c r="AJ48" s="111"/>
+      <c r="AK48" s="111"/>
+      <c r="AL48" s="111"/>
       <c r="AM48" s="16"/>
       <c r="AN48" s="24"/>
       <c r="AO48" s="69" t="s">
@@ -12070,9 +12072,9 @@
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="86"/>
-      <c r="G49" s="111"/>
+      <c r="G49" s="106"/>
       <c r="H49" s="63"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -12098,12 +12100,12 @@
       <c r="AD49" s="62"/>
       <c r="AE49" s="62"/>
       <c r="AF49" s="16"/>
-      <c r="AG49" s="111"/>
+      <c r="AG49" s="106"/>
       <c r="AH49" s="24"/>
-      <c r="AI49" s="104"/>
-      <c r="AJ49" s="106"/>
-      <c r="AK49" s="106"/>
-      <c r="AL49" s="106"/>
+      <c r="AI49" s="109"/>
+      <c r="AJ49" s="111"/>
+      <c r="AK49" s="111"/>
+      <c r="AL49" s="111"/>
       <c r="AM49" s="16"/>
       <c r="AN49" s="24"/>
       <c r="AO49" s="69" t="s">
@@ -12118,9 +12120,9 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="86"/>
-      <c r="G50" s="111"/>
+      <c r="G50" s="106"/>
       <c r="H50" s="63"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -12146,12 +12148,12 @@
       <c r="AD50" s="62"/>
       <c r="AE50" s="62"/>
       <c r="AF50" s="16"/>
-      <c r="AG50" s="111"/>
+      <c r="AG50" s="106"/>
       <c r="AH50" s="24"/>
-      <c r="AI50" s="104"/>
-      <c r="AJ50" s="106"/>
-      <c r="AK50" s="106"/>
-      <c r="AL50" s="106"/>
+      <c r="AI50" s="109"/>
+      <c r="AJ50" s="111"/>
+      <c r="AK50" s="111"/>
+      <c r="AL50" s="111"/>
       <c r="AM50" s="16"/>
       <c r="AN50" s="24"/>
       <c r="AO50" s="69" t="s">
@@ -12166,9 +12168,9 @@
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="86"/>
-      <c r="G51" s="111"/>
+      <c r="G51" s="106"/>
       <c r="H51" s="63"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
@@ -12194,12 +12196,12 @@
       <c r="AD51" s="62"/>
       <c r="AE51" s="62"/>
       <c r="AF51" s="16"/>
-      <c r="AG51" s="111"/>
+      <c r="AG51" s="106"/>
       <c r="AH51" s="24"/>
-      <c r="AI51" s="104"/>
-      <c r="AJ51" s="106"/>
-      <c r="AK51" s="106"/>
-      <c r="AL51" s="106"/>
+      <c r="AI51" s="109"/>
+      <c r="AJ51" s="111"/>
+      <c r="AK51" s="111"/>
+      <c r="AL51" s="111"/>
       <c r="AM51" s="16"/>
       <c r="AN51" s="24"/>
       <c r="AO51" s="69" t="s">
@@ -12214,9 +12216,9 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="86"/>
-      <c r="G52" s="111"/>
+      <c r="G52" s="106"/>
       <c r="H52" s="63"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -12242,12 +12244,12 @@
       <c r="AD52" s="62"/>
       <c r="AE52" s="62"/>
       <c r="AF52" s="16"/>
-      <c r="AG52" s="111"/>
+      <c r="AG52" s="106"/>
       <c r="AH52" s="24"/>
-      <c r="AI52" s="104"/>
-      <c r="AJ52" s="106"/>
-      <c r="AK52" s="106"/>
-      <c r="AL52" s="106"/>
+      <c r="AI52" s="109"/>
+      <c r="AJ52" s="111"/>
+      <c r="AK52" s="111"/>
+      <c r="AL52" s="111"/>
       <c r="AM52" s="16"/>
       <c r="AN52" s="24"/>
       <c r="AO52" s="69" t="s">
@@ -12262,9 +12264,9 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="86"/>
-      <c r="G53" s="111"/>
+      <c r="G53" s="106"/>
       <c r="H53" s="63"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -12290,12 +12292,12 @@
       <c r="AD53" s="62"/>
       <c r="AE53" s="62"/>
       <c r="AF53" s="16"/>
-      <c r="AG53" s="111"/>
+      <c r="AG53" s="106"/>
       <c r="AH53" s="24"/>
-      <c r="AI53" s="104"/>
-      <c r="AJ53" s="106"/>
-      <c r="AK53" s="106"/>
-      <c r="AL53" s="106"/>
+      <c r="AI53" s="109"/>
+      <c r="AJ53" s="111"/>
+      <c r="AK53" s="111"/>
+      <c r="AL53" s="111"/>
       <c r="AM53" s="16"/>
       <c r="AN53" s="24"/>
       <c r="AO53" s="69" t="s">
@@ -12310,9 +12312,9 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="86"/>
-      <c r="G54" s="111"/>
+      <c r="G54" s="106"/>
       <c r="H54" s="63"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -12338,12 +12340,12 @@
       <c r="AD54" s="62"/>
       <c r="AE54" s="62"/>
       <c r="AF54" s="16"/>
-      <c r="AG54" s="111"/>
+      <c r="AG54" s="106"/>
       <c r="AH54" s="24"/>
-      <c r="AI54" s="104"/>
-      <c r="AJ54" s="106"/>
-      <c r="AK54" s="106"/>
-      <c r="AL54" s="106"/>
+      <c r="AI54" s="109"/>
+      <c r="AJ54" s="111"/>
+      <c r="AK54" s="111"/>
+      <c r="AL54" s="111"/>
       <c r="AM54" s="16"/>
       <c r="AN54" s="24"/>
       <c r="AO54" s="69" t="s">
@@ -12358,9 +12360,9 @@
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="86"/>
-      <c r="G55" s="111"/>
+      <c r="G55" s="106"/>
       <c r="H55" s="63"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -12386,12 +12388,12 @@
       <c r="AD55" s="62"/>
       <c r="AE55" s="62"/>
       <c r="AF55" s="16"/>
-      <c r="AG55" s="111"/>
+      <c r="AG55" s="106"/>
       <c r="AH55" s="24"/>
-      <c r="AI55" s="104"/>
-      <c r="AJ55" s="106"/>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106"/>
+      <c r="AI55" s="109"/>
+      <c r="AJ55" s="111"/>
+      <c r="AK55" s="111"/>
+      <c r="AL55" s="111"/>
       <c r="AM55" s="16"/>
       <c r="AN55" s="24"/>
       <c r="AO55" s="69" t="s">
@@ -12406,9 +12408,9 @@
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="110"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="86"/>
-      <c r="G56" s="111"/>
+      <c r="G56" s="106"/>
       <c r="H56" s="63"/>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
@@ -12434,12 +12436,12 @@
       <c r="AD56" s="62"/>
       <c r="AE56" s="62"/>
       <c r="AF56" s="16"/>
-      <c r="AG56" s="111"/>
+      <c r="AG56" s="106"/>
       <c r="AH56" s="24"/>
-      <c r="AI56" s="104"/>
-      <c r="AJ56" s="106"/>
-      <c r="AK56" s="106"/>
-      <c r="AL56" s="106"/>
+      <c r="AI56" s="109"/>
+      <c r="AJ56" s="111"/>
+      <c r="AK56" s="111"/>
+      <c r="AL56" s="111"/>
       <c r="AM56" s="16"/>
       <c r="AN56" s="24"/>
       <c r="AO56" s="69" t="s">
@@ -12454,9 +12456,9 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="86"/>
-      <c r="G57" s="111"/>
+      <c r="G57" s="106"/>
       <c r="H57" s="63"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
@@ -12482,12 +12484,12 @@
       <c r="AD57" s="62"/>
       <c r="AE57" s="62"/>
       <c r="AF57" s="16"/>
-      <c r="AG57" s="111"/>
+      <c r="AG57" s="106"/>
       <c r="AH57" s="24"/>
-      <c r="AI57" s="104"/>
-      <c r="AJ57" s="106"/>
-      <c r="AK57" s="106"/>
-      <c r="AL57" s="106"/>
+      <c r="AI57" s="109"/>
+      <c r="AJ57" s="111"/>
+      <c r="AK57" s="111"/>
+      <c r="AL57" s="111"/>
       <c r="AM57" s="16"/>
       <c r="AN57" s="24"/>
       <c r="AO57" s="69" t="s">
@@ -12502,7 +12504,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="84"/>
       <c r="H58" s="64"/>
@@ -12532,7 +12534,7 @@
       <c r="AF58" s="16"/>
       <c r="AG58" s="84"/>
       <c r="AH58" s="72"/>
-      <c r="AI58" s="107"/>
+      <c r="AI58" s="112"/>
       <c r="AJ58" s="82"/>
       <c r="AK58" s="82"/>
       <c r="AL58" s="82"/>
@@ -12544,6 +12546,7 @@
       <c r="AP58" s="77"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="YGaFtjx5Pl0QJqxjhID5b3HGJak/pi/u4hggD7vvqfu5aRvAg9pB+S7o0CHJW6eVxcjsJqGOsD41saOMP+7wjQ==" saltValue="/PJUVKxzfuf/zCbu9fF6lg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="69">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
@@ -12561,11 +12564,6 @@
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E50:F50"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E10:F10"/>
@@ -12573,6 +12571,7 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E9:F9"/>
@@ -12582,6 +12581,10 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="AI4:AL58"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E30:F30"/>
@@ -12617,7 +12620,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12625,7 +12628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -13274,7 +13277,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -13299,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="S1" s="39"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="103" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
@@ -13328,11 +13331,11 @@
       <c r="AN1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
     </row>
     <row r="2" spans="1:42" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -13448,7 +13451,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
@@ -13568,8 +13571,8 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -14576,7 +14579,7 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="86"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -14624,7 +14627,7 @@
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="110"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="86"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -14672,7 +14675,7 @@
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="86"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -14720,7 +14723,7 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="86"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -14768,7 +14771,7 @@
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="86"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -14816,7 +14819,7 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="110"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="86"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
@@ -14864,7 +14867,7 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="86"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -14912,7 +14915,7 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="86"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -14960,7 +14963,7 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="86"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -15008,7 +15011,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="86"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -15056,7 +15059,7 @@
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="110"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="86"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -15104,7 +15107,7 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="86"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -15152,7 +15155,7 @@
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="86"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -15200,7 +15203,7 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="110"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="86"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -15248,7 +15251,7 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="110"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="86"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -15296,7 +15299,7 @@
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="110"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="86"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -15344,7 +15347,7 @@
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="110"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="86"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -15392,7 +15395,7 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="86"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -15440,7 +15443,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="86"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -15488,7 +15491,7 @@
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="86"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -15536,7 +15539,7 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="86"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -15584,7 +15587,7 @@
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="86"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -15632,7 +15635,7 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="86"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
@@ -15680,7 +15683,7 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="86"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
@@ -15728,7 +15731,7 @@
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="86"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
@@ -15776,7 +15779,7 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="86"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -15824,7 +15827,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="86"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
@@ -15872,7 +15875,7 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="86"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -15920,7 +15923,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="86"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
@@ -15968,7 +15971,7 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="86"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -16016,7 +16019,7 @@
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="86"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -16064,7 +16067,7 @@
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="110"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="86"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
@@ -16112,7 +16115,7 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="86"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
@@ -16160,7 +16163,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -16202,7 +16205,14 @@
       <c r="AP58" s="77"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="JheqMx4BMnZiBnkmompmvjDl/vnZFiVnUqMclh7XaKctJFombLMeNdbXFncsjk5/77A/wqWq442DXSCasbPqUg==" saltValue="jElXLVTa9bDZVWjXVEu7vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E24:F24"/>
@@ -16216,14 +16226,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E51:F51"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E7:F7"/>
@@ -16234,25 +16236,27 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="E16:F16"/>
@@ -16272,7 +16276,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16280,7 +16284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -16929,7 +16933,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -16942,19 +16946,19 @@
       <c r="I1" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="39"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="103" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
@@ -16983,11 +16987,11 @@
       <c r="AN1" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
     </row>
     <row r="2" spans="1:42" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -17105,7 +17109,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
@@ -17227,8 +17231,8 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -17250,12 +17254,12 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="124"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="117"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -17300,10 +17304,10 @@
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
       <c r="AA5" s="24"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="127"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="120"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="24"/>
       <c r="AH5" s="24"/>
@@ -17348,10 +17352,10 @@
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="127"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="120"/>
       <c r="AF6" s="24"/>
       <c r="AG6" s="24"/>
       <c r="AH6" s="24"/>
@@ -17396,10 +17400,10 @@
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="127"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="120"/>
       <c r="AF7" s="24"/>
       <c r="AG7" s="24"/>
       <c r="AH7" s="24"/>
@@ -17444,10 +17448,10 @@
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
       <c r="AA8" s="24"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="127"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
       <c r="AF8" s="24"/>
       <c r="AG8" s="24"/>
       <c r="AH8" s="24"/>
@@ -17492,10 +17496,10 @@
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="127"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="120"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
@@ -17540,10 +17544,10 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
-      <c r="AB10" s="125"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="127"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="120"/>
       <c r="AF10" s="24"/>
       <c r="AG10" s="24"/>
       <c r="AH10" s="24"/>
@@ -17588,10 +17592,10 @@
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
       <c r="AA11" s="24"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="126"/>
-      <c r="AD11" s="126"/>
-      <c r="AE11" s="127"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="120"/>
       <c r="AF11" s="24"/>
       <c r="AG11" s="24"/>
       <c r="AH11" s="24"/>
@@ -17636,10 +17640,10 @@
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
       <c r="AA12" s="24"/>
-      <c r="AB12" s="125"/>
-      <c r="AC12" s="126"/>
-      <c r="AD12" s="126"/>
-      <c r="AE12" s="127"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="120"/>
       <c r="AF12" s="24"/>
       <c r="AG12" s="24"/>
       <c r="AH12" s="24"/>
@@ -17684,10 +17688,10 @@
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
       <c r="AA13" s="24"/>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="127"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="120"/>
       <c r="AF13" s="24"/>
       <c r="AG13" s="24"/>
       <c r="AH13" s="24"/>
@@ -17732,10 +17736,10 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="24"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="127"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="120"/>
       <c r="AF14" s="24"/>
       <c r="AG14" s="24"/>
       <c r="AH14" s="24"/>
@@ -17780,10 +17784,10 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
       <c r="AA15" s="24"/>
-      <c r="AB15" s="125"/>
-      <c r="AC15" s="126"/>
-      <c r="AD15" s="126"/>
-      <c r="AE15" s="127"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="120"/>
       <c r="AF15" s="24"/>
       <c r="AG15" s="24"/>
       <c r="AH15" s="24"/>
@@ -17828,10 +17832,10 @@
       <c r="Y16" s="24"/>
       <c r="Z16" s="24"/>
       <c r="AA16" s="24"/>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="127"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="120"/>
       <c r="AF16" s="24"/>
       <c r="AG16" s="24"/>
       <c r="AH16" s="24"/>
@@ -17876,10 +17880,10 @@
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="127"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="120"/>
       <c r="AF17" s="24"/>
       <c r="AG17" s="24"/>
       <c r="AH17" s="24"/>
@@ -17924,10 +17928,10 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="125"/>
-      <c r="AC18" s="126"/>
-      <c r="AD18" s="126"/>
-      <c r="AE18" s="127"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="120"/>
       <c r="AF18" s="24"/>
       <c r="AG18" s="24"/>
       <c r="AH18" s="24"/>
@@ -17972,10 +17976,10 @@
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
-      <c r="AB19" s="125"/>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="127"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="120"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="24"/>
       <c r="AH19" s="24"/>
@@ -18020,10 +18024,10 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
       <c r="AA20" s="24"/>
-      <c r="AB20" s="125"/>
-      <c r="AC20" s="126"/>
-      <c r="AD20" s="126"/>
-      <c r="AE20" s="127"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="120"/>
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
       <c r="AH20" s="24"/>
@@ -18068,10 +18072,10 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
       <c r="AA21" s="24"/>
-      <c r="AB21" s="125"/>
-      <c r="AC21" s="126"/>
-      <c r="AD21" s="126"/>
-      <c r="AE21" s="127"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="120"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24"/>
       <c r="AH21" s="24"/>
@@ -18116,10 +18120,10 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="24"/>
-      <c r="AB22" s="125"/>
-      <c r="AC22" s="126"/>
-      <c r="AD22" s="126"/>
-      <c r="AE22" s="127"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="120"/>
       <c r="AF22" s="24"/>
       <c r="AG22" s="24"/>
       <c r="AH22" s="24"/>
@@ -18164,10 +18168,10 @@
       <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="126"/>
-      <c r="AD23" s="126"/>
-      <c r="AE23" s="127"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="119"/>
+      <c r="AD23" s="119"/>
+      <c r="AE23" s="120"/>
       <c r="AF23" s="24"/>
       <c r="AG23" s="24"/>
       <c r="AH23" s="24"/>
@@ -18212,10 +18216,10 @@
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
       <c r="AA24" s="24"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="126"/>
-      <c r="AD24" s="126"/>
-      <c r="AE24" s="127"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="120"/>
       <c r="AF24" s="24"/>
       <c r="AG24" s="24"/>
       <c r="AH24" s="24"/>
@@ -18237,7 +18241,7 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="86"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -18260,10 +18264,10 @@
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
       <c r="AA25" s="24"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="126"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="127"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="120"/>
       <c r="AF25" s="24"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="24"/>
@@ -18285,7 +18289,7 @@
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="110"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="86"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -18308,10 +18312,10 @@
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="24"/>
-      <c r="AB26" s="125"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="127"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="120"/>
       <c r="AF26" s="24"/>
       <c r="AG26" s="24"/>
       <c r="AH26" s="24"/>
@@ -18333,7 +18337,7 @@
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="86"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -18356,10 +18360,10 @@
       <c r="Y27" s="24"/>
       <c r="Z27" s="24"/>
       <c r="AA27" s="24"/>
-      <c r="AB27" s="125"/>
-      <c r="AC27" s="126"/>
-      <c r="AD27" s="126"/>
-      <c r="AE27" s="127"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="119"/>
+      <c r="AD27" s="119"/>
+      <c r="AE27" s="120"/>
       <c r="AF27" s="24"/>
       <c r="AG27" s="24"/>
       <c r="AH27" s="24"/>
@@ -18381,7 +18385,7 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="86"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -18404,10 +18408,10 @@
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
       <c r="AA28" s="24"/>
-      <c r="AB28" s="125"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="127"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="119"/>
+      <c r="AD28" s="119"/>
+      <c r="AE28" s="120"/>
       <c r="AF28" s="24"/>
       <c r="AG28" s="24"/>
       <c r="AH28" s="24"/>
@@ -18429,7 +18433,7 @@
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="86"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -18452,10 +18456,10 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
       <c r="AA29" s="24"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="126"/>
-      <c r="AD29" s="126"/>
-      <c r="AE29" s="127"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="119"/>
+      <c r="AD29" s="119"/>
+      <c r="AE29" s="120"/>
       <c r="AF29" s="24"/>
       <c r="AG29" s="24"/>
       <c r="AH29" s="24"/>
@@ -18477,7 +18481,7 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="110"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="86"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
@@ -18500,10 +18504,10 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
       <c r="AA30" s="24"/>
-      <c r="AB30" s="125"/>
-      <c r="AC30" s="126"/>
-      <c r="AD30" s="126"/>
-      <c r="AE30" s="127"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="119"/>
+      <c r="AD30" s="119"/>
+      <c r="AE30" s="120"/>
       <c r="AF30" s="24"/>
       <c r="AG30" s="24"/>
       <c r="AH30" s="24"/>
@@ -18525,7 +18529,7 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="86"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
@@ -18548,10 +18552,10 @@
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
       <c r="AA31" s="24"/>
-      <c r="AB31" s="125"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="127"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="120"/>
       <c r="AF31" s="24"/>
       <c r="AG31" s="24"/>
       <c r="AH31" s="24"/>
@@ -18573,7 +18577,7 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="86"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
@@ -18596,10 +18600,10 @@
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="125"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="126"/>
-      <c r="AE32" s="127"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="119"/>
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="120"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="24"/>
       <c r="AH32" s="24"/>
@@ -18621,7 +18625,7 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="86"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
@@ -18644,10 +18648,10 @@
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
       <c r="AA33" s="24"/>
-      <c r="AB33" s="125"/>
-      <c r="AC33" s="126"/>
-      <c r="AD33" s="126"/>
-      <c r="AE33" s="127"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="119"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="120"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="24"/>
       <c r="AH33" s="24"/>
@@ -18669,7 +18673,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="86"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -18692,10 +18696,10 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
       <c r="AA34" s="24"/>
-      <c r="AB34" s="125"/>
-      <c r="AC34" s="126"/>
-      <c r="AD34" s="126"/>
-      <c r="AE34" s="127"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="119"/>
+      <c r="AD34" s="119"/>
+      <c r="AE34" s="120"/>
       <c r="AF34" s="24"/>
       <c r="AG34" s="24"/>
       <c r="AH34" s="24"/>
@@ -18717,7 +18721,7 @@
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="110"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="86"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
@@ -18740,10 +18744,10 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
       <c r="AA35" s="24"/>
-      <c r="AB35" s="125"/>
-      <c r="AC35" s="126"/>
-      <c r="AD35" s="126"/>
-      <c r="AE35" s="127"/>
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="119"/>
+      <c r="AD35" s="119"/>
+      <c r="AE35" s="120"/>
       <c r="AF35" s="24"/>
       <c r="AG35" s="24"/>
       <c r="AH35" s="24"/>
@@ -18765,7 +18769,7 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="86"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
@@ -18788,10 +18792,10 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
       <c r="AA36" s="24"/>
-      <c r="AB36" s="125"/>
-      <c r="AC36" s="126"/>
-      <c r="AD36" s="126"/>
-      <c r="AE36" s="127"/>
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="119"/>
+      <c r="AD36" s="119"/>
+      <c r="AE36" s="120"/>
       <c r="AF36" s="24"/>
       <c r="AG36" s="24"/>
       <c r="AH36" s="24"/>
@@ -18813,7 +18817,7 @@
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="86"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
@@ -18836,10 +18840,10 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
       <c r="AA37" s="24"/>
-      <c r="AB37" s="125"/>
-      <c r="AC37" s="126"/>
-      <c r="AD37" s="126"/>
-      <c r="AE37" s="127"/>
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="119"/>
+      <c r="AD37" s="119"/>
+      <c r="AE37" s="120"/>
       <c r="AF37" s="24"/>
       <c r="AG37" s="24"/>
       <c r="AH37" s="24"/>
@@ -18861,7 +18865,7 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="110"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="86"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -18884,10 +18888,10 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
       <c r="AA38" s="24"/>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="126"/>
-      <c r="AD38" s="126"/>
-      <c r="AE38" s="127"/>
+      <c r="AB38" s="118"/>
+      <c r="AC38" s="119"/>
+      <c r="AD38" s="119"/>
+      <c r="AE38" s="120"/>
       <c r="AF38" s="24"/>
       <c r="AG38" s="24"/>
       <c r="AH38" s="24"/>
@@ -18909,7 +18913,7 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="110"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="86"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
@@ -18932,10 +18936,10 @@
       <c r="Y39" s="24"/>
       <c r="Z39" s="24"/>
       <c r="AA39" s="24"/>
-      <c r="AB39" s="125"/>
-      <c r="AC39" s="126"/>
-      <c r="AD39" s="126"/>
-      <c r="AE39" s="127"/>
+      <c r="AB39" s="118"/>
+      <c r="AC39" s="119"/>
+      <c r="AD39" s="119"/>
+      <c r="AE39" s="120"/>
       <c r="AF39" s="24"/>
       <c r="AG39" s="24"/>
       <c r="AH39" s="24"/>
@@ -18957,7 +18961,7 @@
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="110"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="86"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -18980,10 +18984,10 @@
       <c r="Y40" s="24"/>
       <c r="Z40" s="24"/>
       <c r="AA40" s="24"/>
-      <c r="AB40" s="125"/>
-      <c r="AC40" s="126"/>
-      <c r="AD40" s="126"/>
-      <c r="AE40" s="127"/>
+      <c r="AB40" s="118"/>
+      <c r="AC40" s="119"/>
+      <c r="AD40" s="119"/>
+      <c r="AE40" s="120"/>
       <c r="AF40" s="24"/>
       <c r="AG40" s="24"/>
       <c r="AH40" s="24"/>
@@ -19005,7 +19009,7 @@
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="110"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="86"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -19028,10 +19032,10 @@
       <c r="Y41" s="24"/>
       <c r="Z41" s="24"/>
       <c r="AA41" s="24"/>
-      <c r="AB41" s="125"/>
-      <c r="AC41" s="126"/>
-      <c r="AD41" s="126"/>
-      <c r="AE41" s="127"/>
+      <c r="AB41" s="118"/>
+      <c r="AC41" s="119"/>
+      <c r="AD41" s="119"/>
+      <c r="AE41" s="120"/>
       <c r="AF41" s="24"/>
       <c r="AG41" s="24"/>
       <c r="AH41" s="24"/>
@@ -19053,7 +19057,7 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="86"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -19076,10 +19080,10 @@
       <c r="Y42" s="24"/>
       <c r="Z42" s="24"/>
       <c r="AA42" s="24"/>
-      <c r="AB42" s="125"/>
-      <c r="AC42" s="126"/>
-      <c r="AD42" s="126"/>
-      <c r="AE42" s="127"/>
+      <c r="AB42" s="118"/>
+      <c r="AC42" s="119"/>
+      <c r="AD42" s="119"/>
+      <c r="AE42" s="120"/>
       <c r="AF42" s="24"/>
       <c r="AG42" s="24"/>
       <c r="AH42" s="24"/>
@@ -19101,7 +19105,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="86"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -19124,10 +19128,10 @@
       <c r="Y43" s="24"/>
       <c r="Z43" s="24"/>
       <c r="AA43" s="24"/>
-      <c r="AB43" s="125"/>
-      <c r="AC43" s="126"/>
-      <c r="AD43" s="126"/>
-      <c r="AE43" s="127"/>
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="119"/>
+      <c r="AD43" s="119"/>
+      <c r="AE43" s="120"/>
       <c r="AF43" s="24"/>
       <c r="AG43" s="24"/>
       <c r="AH43" s="24"/>
@@ -19149,7 +19153,7 @@
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="86"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
@@ -19172,10 +19176,10 @@
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
       <c r="AA44" s="24"/>
-      <c r="AB44" s="125"/>
-      <c r="AC44" s="126"/>
-      <c r="AD44" s="126"/>
-      <c r="AE44" s="127"/>
+      <c r="AB44" s="118"/>
+      <c r="AC44" s="119"/>
+      <c r="AD44" s="119"/>
+      <c r="AE44" s="120"/>
       <c r="AF44" s="24"/>
       <c r="AG44" s="24"/>
       <c r="AH44" s="24"/>
@@ -19197,7 +19201,7 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="86"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
@@ -19220,10 +19224,10 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
       <c r="AA45" s="24"/>
-      <c r="AB45" s="125"/>
-      <c r="AC45" s="126"/>
-      <c r="AD45" s="126"/>
-      <c r="AE45" s="127"/>
+      <c r="AB45" s="118"/>
+      <c r="AC45" s="119"/>
+      <c r="AD45" s="119"/>
+      <c r="AE45" s="120"/>
       <c r="AF45" s="24"/>
       <c r="AG45" s="24"/>
       <c r="AH45" s="24"/>
@@ -19245,7 +19249,7 @@
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="86"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
@@ -19268,10 +19272,10 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
       <c r="AA46" s="24"/>
-      <c r="AB46" s="125"/>
-      <c r="AC46" s="126"/>
-      <c r="AD46" s="126"/>
-      <c r="AE46" s="127"/>
+      <c r="AB46" s="118"/>
+      <c r="AC46" s="119"/>
+      <c r="AD46" s="119"/>
+      <c r="AE46" s="120"/>
       <c r="AF46" s="24"/>
       <c r="AG46" s="24"/>
       <c r="AH46" s="24"/>
@@ -19293,7 +19297,7 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="86"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
@@ -19316,10 +19320,10 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
       <c r="AA47" s="24"/>
-      <c r="AB47" s="125"/>
-      <c r="AC47" s="126"/>
-      <c r="AD47" s="126"/>
-      <c r="AE47" s="127"/>
+      <c r="AB47" s="118"/>
+      <c r="AC47" s="119"/>
+      <c r="AD47" s="119"/>
+      <c r="AE47" s="120"/>
       <c r="AF47" s="24"/>
       <c r="AG47" s="24"/>
       <c r="AH47" s="24"/>
@@ -19341,7 +19345,7 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="86"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
@@ -19364,10 +19368,10 @@
       <c r="Y48" s="24"/>
       <c r="Z48" s="24"/>
       <c r="AA48" s="24"/>
-      <c r="AB48" s="125"/>
-      <c r="AC48" s="126"/>
-      <c r="AD48" s="126"/>
-      <c r="AE48" s="127"/>
+      <c r="AB48" s="118"/>
+      <c r="AC48" s="119"/>
+      <c r="AD48" s="119"/>
+      <c r="AE48" s="120"/>
       <c r="AF48" s="24"/>
       <c r="AG48" s="24"/>
       <c r="AH48" s="24"/>
@@ -19389,7 +19393,7 @@
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="86"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
@@ -19412,10 +19416,10 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
       <c r="AA49" s="24"/>
-      <c r="AB49" s="125"/>
-      <c r="AC49" s="126"/>
-      <c r="AD49" s="126"/>
-      <c r="AE49" s="127"/>
+      <c r="AB49" s="118"/>
+      <c r="AC49" s="119"/>
+      <c r="AD49" s="119"/>
+      <c r="AE49" s="120"/>
       <c r="AF49" s="24"/>
       <c r="AG49" s="24"/>
       <c r="AH49" s="24"/>
@@ -19437,7 +19441,7 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="86"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -19460,10 +19464,10 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
       <c r="AA50" s="24"/>
-      <c r="AB50" s="125"/>
-      <c r="AC50" s="126"/>
-      <c r="AD50" s="126"/>
-      <c r="AE50" s="127"/>
+      <c r="AB50" s="118"/>
+      <c r="AC50" s="119"/>
+      <c r="AD50" s="119"/>
+      <c r="AE50" s="120"/>
       <c r="AF50" s="24"/>
       <c r="AG50" s="24"/>
       <c r="AH50" s="24"/>
@@ -19485,7 +19489,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="86"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
@@ -19508,10 +19512,10 @@
       <c r="Y51" s="24"/>
       <c r="Z51" s="24"/>
       <c r="AA51" s="24"/>
-      <c r="AB51" s="125"/>
-      <c r="AC51" s="126"/>
-      <c r="AD51" s="126"/>
-      <c r="AE51" s="127"/>
+      <c r="AB51" s="118"/>
+      <c r="AC51" s="119"/>
+      <c r="AD51" s="119"/>
+      <c r="AE51" s="120"/>
       <c r="AF51" s="24"/>
       <c r="AG51" s="24"/>
       <c r="AH51" s="24"/>
@@ -19533,7 +19537,7 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="86"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
@@ -19556,10 +19560,10 @@
       <c r="Y52" s="24"/>
       <c r="Z52" s="24"/>
       <c r="AA52" s="24"/>
-      <c r="AB52" s="125"/>
-      <c r="AC52" s="126"/>
-      <c r="AD52" s="126"/>
-      <c r="AE52" s="127"/>
+      <c r="AB52" s="118"/>
+      <c r="AC52" s="119"/>
+      <c r="AD52" s="119"/>
+      <c r="AE52" s="120"/>
       <c r="AF52" s="24"/>
       <c r="AG52" s="24"/>
       <c r="AH52" s="24"/>
@@ -19581,7 +19585,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="86"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
@@ -19604,10 +19608,10 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
-      <c r="AB53" s="125"/>
-      <c r="AC53" s="126"/>
-      <c r="AD53" s="126"/>
-      <c r="AE53" s="127"/>
+      <c r="AB53" s="118"/>
+      <c r="AC53" s="119"/>
+      <c r="AD53" s="119"/>
+      <c r="AE53" s="120"/>
       <c r="AF53" s="24"/>
       <c r="AG53" s="24"/>
       <c r="AH53" s="24"/>
@@ -19629,7 +19633,7 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="86"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
@@ -19652,10 +19656,10 @@
       <c r="Y54" s="24"/>
       <c r="Z54" s="24"/>
       <c r="AA54" s="24"/>
-      <c r="AB54" s="125"/>
-      <c r="AC54" s="126"/>
-      <c r="AD54" s="126"/>
-      <c r="AE54" s="127"/>
+      <c r="AB54" s="118"/>
+      <c r="AC54" s="119"/>
+      <c r="AD54" s="119"/>
+      <c r="AE54" s="120"/>
       <c r="AF54" s="24"/>
       <c r="AG54" s="24"/>
       <c r="AH54" s="24"/>
@@ -19677,7 +19681,7 @@
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="86"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
@@ -19700,10 +19704,10 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
       <c r="AA55" s="24"/>
-      <c r="AB55" s="125"/>
-      <c r="AC55" s="126"/>
-      <c r="AD55" s="126"/>
-      <c r="AE55" s="127"/>
+      <c r="AB55" s="118"/>
+      <c r="AC55" s="119"/>
+      <c r="AD55" s="119"/>
+      <c r="AE55" s="120"/>
       <c r="AF55" s="24"/>
       <c r="AG55" s="24"/>
       <c r="AH55" s="24"/>
@@ -19725,7 +19729,7 @@
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="110"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="86"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
@@ -19748,10 +19752,10 @@
       <c r="Y56" s="24"/>
       <c r="Z56" s="24"/>
       <c r="AA56" s="24"/>
-      <c r="AB56" s="125"/>
-      <c r="AC56" s="126"/>
-      <c r="AD56" s="126"/>
-      <c r="AE56" s="127"/>
+      <c r="AB56" s="118"/>
+      <c r="AC56" s="119"/>
+      <c r="AD56" s="119"/>
+      <c r="AE56" s="120"/>
       <c r="AF56" s="24"/>
       <c r="AG56" s="24"/>
       <c r="AH56" s="24"/>
@@ -19773,7 +19777,7 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="86"/>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
@@ -19796,10 +19800,10 @@
       <c r="Y57" s="24"/>
       <c r="Z57" s="24"/>
       <c r="AA57" s="24"/>
-      <c r="AB57" s="125"/>
-      <c r="AC57" s="126"/>
-      <c r="AD57" s="126"/>
-      <c r="AE57" s="127"/>
+      <c r="AB57" s="118"/>
+      <c r="AC57" s="119"/>
+      <c r="AD57" s="119"/>
+      <c r="AE57" s="120"/>
       <c r="AF57" s="24"/>
       <c r="AG57" s="24"/>
       <c r="AH57" s="24"/>
@@ -19821,7 +19825,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
@@ -19844,10 +19848,10 @@
       <c r="Y58" s="72"/>
       <c r="Z58" s="72"/>
       <c r="AA58" s="72"/>
-      <c r="AB58" s="128"/>
-      <c r="AC58" s="129"/>
-      <c r="AD58" s="129"/>
-      <c r="AE58" s="130"/>
+      <c r="AB58" s="121"/>
+      <c r="AC58" s="122"/>
+      <c r="AD58" s="122"/>
+      <c r="AE58" s="123"/>
       <c r="AF58" s="72"/>
       <c r="AG58" s="72"/>
       <c r="AH58" s="72"/>
@@ -19863,7 +19867,14 @@
       <c r="AP58" s="61"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="pWfuHcqDut4hcrxaMsOxJ9ceO9BxEocqfZO3/steeCXMFOJC2AKtd5hKJdhy0fAjllV2CcdweTJKvCowUkUzwA==" saltValue="x5Bj+UsZowSiKzqnW5fzxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="67">
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E24:F24"/>
@@ -19877,20 +19888,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E9:F9"/>
@@ -19900,14 +19897,19 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="AB4:AE58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E49:F49"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E45:F45"/>
@@ -19915,26 +19917,29 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="E57:F57"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="E54:F54"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E41:F41"/>
     <mergeCell ref="AF1:AM1"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E47:F47"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19942,7 +19947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -20591,7 +20596,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -20616,7 +20621,7 @@
         <v>2</v>
       </c>
       <c r="S1" s="39"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="103" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
@@ -20645,11 +20650,11 @@
       <c r="AN1" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
     </row>
     <row r="2" spans="1:42" s="45" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -20761,7 +20766,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
@@ -20877,8 +20882,8 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -21885,7 +21890,7 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="86"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -21933,7 +21938,7 @@
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="110"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="86"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -21981,7 +21986,7 @@
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="86"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -22029,7 +22034,7 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="86"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -22077,7 +22082,7 @@
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="86"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -22125,7 +22130,7 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="110"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="86"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
@@ -22173,7 +22178,7 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="86"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -22221,7 +22226,7 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="86"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -22269,7 +22274,7 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="86"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -22317,7 +22322,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="86"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -22365,7 +22370,7 @@
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="110"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="86"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -22413,7 +22418,7 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="86"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -22461,7 +22466,7 @@
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="86"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -22509,7 +22514,7 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="110"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="86"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -22557,7 +22562,7 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="110"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="86"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -22605,7 +22610,7 @@
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="110"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="86"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -22653,7 +22658,7 @@
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="110"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="86"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -22701,7 +22706,7 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="86"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -22749,7 +22754,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="86"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -22797,7 +22802,7 @@
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="86"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -22845,7 +22850,7 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="86"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -22893,7 +22898,7 @@
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="86"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -22941,7 +22946,7 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="86"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
@@ -22989,7 +22994,7 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="86"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
@@ -23037,7 +23042,7 @@
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="86"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
@@ -23085,7 +23090,7 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="86"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -23133,7 +23138,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="86"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
@@ -23181,7 +23186,7 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="86"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -23229,7 +23234,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="86"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
@@ -23277,7 +23282,7 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="86"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -23325,7 +23330,7 @@
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="86"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -23373,7 +23378,7 @@
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="110"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="86"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
@@ -23421,7 +23426,7 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="86"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
@@ -23469,7 +23474,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -23511,6 +23516,7 @@
       <c r="AP58" s="61"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="QJ2wsnvwaYdQ9knlFt+vgvWYSfMf02Z/VSDsq8GvaJVREpYMRz+KFTDuzoYPfKbCUWlO1b2oQBqL8RxhdeU9GA==" saltValue="JY8dQ+edOkxEG0ng+XvFSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
@@ -23544,44 +23550,44 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23589,7 +23595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -24238,7 +24244,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -24251,19 +24257,19 @@
       <c r="I1" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="39"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="103" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
@@ -24292,11 +24298,11 @@
       <c r="AN1" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
     </row>
     <row r="2" spans="1:42" s="45" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -24414,7 +24420,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
@@ -24536,9 +24542,9 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="102" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="105" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="62"/>
@@ -24551,25 +24557,25 @@
       <c r="O4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="124"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="117"/>
       <c r="W4" s="30"/>
       <c r="X4" s="31"/>
-      <c r="Y4" s="122" t="s">
+      <c r="Y4" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="62"/>
       <c r="AG4" s="16"/>
@@ -24594,7 +24600,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="87"/>
       <c r="F5" s="86"/>
-      <c r="G5" s="111"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
       <c r="J5" s="16"/>
@@ -24603,21 +24609,21 @@
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="62"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
       <c r="W5" s="30"/>
       <c r="X5" s="31"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
       <c r="AE5" s="62"/>
       <c r="AF5" s="62"/>
       <c r="AG5" s="16"/>
@@ -24642,7 +24648,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="87"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="111"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
       <c r="J6" s="16"/>
@@ -24651,21 +24657,21 @@
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="62"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="127"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="120"/>
       <c r="W6" s="30"/>
       <c r="X6" s="31"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
       <c r="AE6" s="62"/>
       <c r="AF6" s="62"/>
       <c r="AG6" s="16"/>
@@ -24690,7 +24696,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="87"/>
       <c r="F7" s="86"/>
-      <c r="G7" s="111"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="63"/>
       <c r="I7" s="63"/>
       <c r="J7" s="16"/>
@@ -24699,21 +24705,21 @@
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
       <c r="O7" s="62"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="127"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="120"/>
       <c r="W7" s="30"/>
       <c r="X7" s="31"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
       <c r="AE7" s="62"/>
       <c r="AF7" s="62"/>
       <c r="AG7" s="16"/>
@@ -24738,7 +24744,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="87"/>
       <c r="F8" s="86"/>
-      <c r="G8" s="111"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
       <c r="J8" s="16"/>
@@ -24747,21 +24753,21 @@
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="62"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="127"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="120"/>
       <c r="W8" s="30"/>
       <c r="X8" s="31"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
       <c r="AE8" s="62"/>
       <c r="AF8" s="62"/>
       <c r="AG8" s="16"/>
@@ -24786,7 +24792,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="87"/>
       <c r="F9" s="86"/>
-      <c r="G9" s="111"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="16"/>
@@ -24795,21 +24801,21 @@
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="62"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="127"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="120"/>
       <c r="W9" s="30"/>
       <c r="X9" s="31"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
       <c r="AE9" s="62"/>
       <c r="AF9" s="62"/>
       <c r="AG9" s="16"/>
@@ -24834,7 +24840,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="87"/>
       <c r="F10" s="86"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="16"/>
@@ -24843,21 +24849,21 @@
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
       <c r="O10" s="62"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="127"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="120"/>
       <c r="W10" s="30"/>
       <c r="X10" s="31"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
       <c r="AE10" s="62"/>
       <c r="AF10" s="62"/>
       <c r="AG10" s="16"/>
@@ -24882,7 +24888,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="87"/>
       <c r="F11" s="86"/>
-      <c r="G11" s="111"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="16"/>
@@ -24891,21 +24897,21 @@
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="62"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="120"/>
       <c r="W11" s="30"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="126"/>
-      <c r="AD11" s="126"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
       <c r="AE11" s="62"/>
       <c r="AF11" s="62"/>
       <c r="AG11" s="16"/>
@@ -24930,7 +24936,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="87"/>
       <c r="F12" s="86"/>
-      <c r="G12" s="111"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="16"/>
@@ -24939,21 +24945,21 @@
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="62"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="126"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="127"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="120"/>
       <c r="W12" s="30"/>
       <c r="X12" s="31"/>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="126"/>
-      <c r="AD12" s="126"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
       <c r="AE12" s="62"/>
       <c r="AF12" s="62"/>
       <c r="AG12" s="16"/>
@@ -24978,7 +24984,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="87"/>
       <c r="F13" s="86"/>
-      <c r="G13" s="111"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="16"/>
@@ -24987,21 +24993,21 @@
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="62"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="127"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="120"/>
       <c r="W13" s="30"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="125"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
       <c r="AE13" s="62"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="16"/>
@@ -25026,7 +25032,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="87"/>
       <c r="F14" s="86"/>
-      <c r="G14" s="111"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="16"/>
@@ -25035,21 +25041,21 @@
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="127"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="120"/>
       <c r="W14" s="30"/>
       <c r="X14" s="31"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
       <c r="AE14" s="62"/>
       <c r="AF14" s="62"/>
       <c r="AG14" s="16"/>
@@ -25074,7 +25080,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="16"/>
@@ -25083,21 +25089,21 @@
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="127"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="120"/>
       <c r="W15" s="30"/>
       <c r="X15" s="31"/>
-      <c r="Y15" s="125"/>
-      <c r="Z15" s="126"/>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="126"/>
-      <c r="AD15" s="126"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
       <c r="AE15" s="62"/>
       <c r="AF15" s="62"/>
       <c r="AG15" s="16"/>
@@ -25122,7 +25128,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="87"/>
       <c r="F16" s="86"/>
-      <c r="G16" s="111"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="16"/>
@@ -25131,21 +25137,21 @@
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="62"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="127"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="120"/>
       <c r="W16" s="30"/>
       <c r="X16" s="31"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
       <c r="AE16" s="62"/>
       <c r="AF16" s="62"/>
       <c r="AG16" s="16"/>
@@ -25170,7 +25176,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="87"/>
       <c r="F17" s="86"/>
-      <c r="G17" s="111"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="16"/>
@@ -25179,21 +25185,21 @@
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="62"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="127"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="120"/>
       <c r="W17" s="30"/>
       <c r="X17" s="31"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
       <c r="AE17" s="62"/>
       <c r="AF17" s="62"/>
       <c r="AG17" s="16"/>
@@ -25218,7 +25224,7 @@
       <c r="D18" s="27"/>
       <c r="E18" s="87"/>
       <c r="F18" s="86"/>
-      <c r="G18" s="111"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="16"/>
@@ -25227,21 +25233,21 @@
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="62"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="127"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="120"/>
       <c r="W18" s="30"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="126"/>
-      <c r="AA18" s="126"/>
-      <c r="AB18" s="126"/>
-      <c r="AC18" s="126"/>
-      <c r="AD18" s="126"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
       <c r="AE18" s="62"/>
       <c r="AF18" s="62"/>
       <c r="AG18" s="16"/>
@@ -25266,7 +25272,7 @@
       <c r="D19" s="27"/>
       <c r="E19" s="87"/>
       <c r="F19" s="86"/>
-      <c r="G19" s="111"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="16"/>
@@ -25275,21 +25281,21 @@
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="62"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="127"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="120"/>
       <c r="W19" s="30"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="125"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="126"/>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="119"/>
       <c r="AE19" s="62"/>
       <c r="AF19" s="62"/>
       <c r="AG19" s="16"/>
@@ -25314,7 +25320,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="87"/>
       <c r="F20" s="86"/>
-      <c r="G20" s="111"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="16"/>
@@ -25323,21 +25329,21 @@
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="62"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="127"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="120"/>
       <c r="W20" s="30"/>
       <c r="X20" s="31"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="126"/>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="126"/>
-      <c r="AC20" s="126"/>
-      <c r="AD20" s="126"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
       <c r="AE20" s="62"/>
       <c r="AF20" s="62"/>
       <c r="AG20" s="16"/>
@@ -25362,7 +25368,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="87"/>
       <c r="F21" s="86"/>
-      <c r="G21" s="111"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="16"/>
@@ -25371,21 +25377,21 @@
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="62"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="127"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="120"/>
       <c r="W21" s="30"/>
       <c r="X21" s="31"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="126"/>
-      <c r="AC21" s="126"/>
-      <c r="AD21" s="126"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="119"/>
       <c r="AE21" s="62"/>
       <c r="AF21" s="62"/>
       <c r="AG21" s="16"/>
@@ -25410,7 +25416,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="87"/>
       <c r="F22" s="86"/>
-      <c r="G22" s="111"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="16"/>
@@ -25419,21 +25425,21 @@
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="62"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="127"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="120"/>
       <c r="W22" s="30"/>
       <c r="X22" s="31"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="126"/>
-      <c r="AC22" s="126"/>
-      <c r="AD22" s="126"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
       <c r="AE22" s="62"/>
       <c r="AF22" s="62"/>
       <c r="AG22" s="16"/>
@@ -25458,7 +25464,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="87"/>
       <c r="F23" s="86"/>
-      <c r="G23" s="111"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="16"/>
@@ -25467,21 +25473,21 @@
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
       <c r="O23" s="62"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="127"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="120"/>
       <c r="W23" s="30"/>
       <c r="X23" s="31"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="126"/>
-      <c r="AD23" s="126"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="119"/>
+      <c r="AA23" s="119"/>
+      <c r="AB23" s="119"/>
+      <c r="AC23" s="119"/>
+      <c r="AD23" s="119"/>
       <c r="AE23" s="62"/>
       <c r="AF23" s="62"/>
       <c r="AG23" s="16"/>
@@ -25506,7 +25512,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="87"/>
       <c r="F24" s="86"/>
-      <c r="G24" s="111"/>
+      <c r="G24" s="106"/>
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="16"/>
@@ -25515,21 +25521,21 @@
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
       <c r="O24" s="62"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="127"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="120"/>
       <c r="W24" s="30"/>
       <c r="X24" s="31"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="126"/>
-      <c r="AD24" s="126"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="119"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="119"/>
       <c r="AE24" s="62"/>
       <c r="AF24" s="62"/>
       <c r="AG24" s="16"/>
@@ -25552,9 +25558,9 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="86"/>
-      <c r="G25" s="111"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="16"/>
@@ -25563,21 +25569,21 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="62"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="127"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="120"/>
       <c r="W25" s="30"/>
       <c r="X25" s="31"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="126"/>
-      <c r="AD25" s="126"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
       <c r="AE25" s="62"/>
       <c r="AF25" s="62"/>
       <c r="AG25" s="16"/>
@@ -25600,9 +25606,9 @@
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="110"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="86"/>
-      <c r="G26" s="111"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="16"/>
@@ -25611,21 +25617,21 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="62"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="127"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="120"/>
       <c r="W26" s="30"/>
       <c r="X26" s="31"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="119"/>
       <c r="AE26" s="62"/>
       <c r="AF26" s="62"/>
       <c r="AG26" s="16"/>
@@ -25648,9 +25654,9 @@
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="86"/>
-      <c r="G27" s="111"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="16"/>
@@ -25659,21 +25665,21 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="62"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="127"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="120"/>
       <c r="W27" s="30"/>
       <c r="X27" s="31"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="126"/>
-      <c r="AC27" s="126"/>
-      <c r="AD27" s="126"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="119"/>
+      <c r="AA27" s="119"/>
+      <c r="AB27" s="119"/>
+      <c r="AC27" s="119"/>
+      <c r="AD27" s="119"/>
       <c r="AE27" s="62"/>
       <c r="AF27" s="62"/>
       <c r="AG27" s="16"/>
@@ -25696,9 +25702,9 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="86"/>
-      <c r="G28" s="111"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="16"/>
@@ -25707,21 +25713,21 @@
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
       <c r="O28" s="62"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="127"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="120"/>
       <c r="W28" s="30"/>
       <c r="X28" s="31"/>
-      <c r="Y28" s="125"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="126"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="119"/>
+      <c r="AC28" s="119"/>
+      <c r="AD28" s="119"/>
       <c r="AE28" s="62"/>
       <c r="AF28" s="62"/>
       <c r="AG28" s="16"/>
@@ -25744,9 +25750,9 @@
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="86"/>
-      <c r="G29" s="111"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="16"/>
@@ -25755,21 +25761,21 @@
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
       <c r="O29" s="62"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="127"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="120"/>
       <c r="W29" s="30"/>
       <c r="X29" s="31"/>
-      <c r="Y29" s="125"/>
-      <c r="Z29" s="126"/>
-      <c r="AA29" s="126"/>
-      <c r="AB29" s="126"/>
-      <c r="AC29" s="126"/>
-      <c r="AD29" s="126"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="119"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="119"/>
+      <c r="AC29" s="119"/>
+      <c r="AD29" s="119"/>
       <c r="AE29" s="62"/>
       <c r="AF29" s="62"/>
       <c r="AG29" s="16"/>
@@ -25792,9 +25798,9 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="110"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="86"/>
-      <c r="G30" s="111"/>
+      <c r="G30" s="106"/>
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="16"/>
@@ -25803,21 +25809,21 @@
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="62"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="127"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="120"/>
       <c r="W30" s="30"/>
       <c r="X30" s="31"/>
-      <c r="Y30" s="125"/>
-      <c r="Z30" s="126"/>
-      <c r="AA30" s="126"/>
-      <c r="AB30" s="126"/>
-      <c r="AC30" s="126"/>
-      <c r="AD30" s="126"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="119"/>
+      <c r="AA30" s="119"/>
+      <c r="AB30" s="119"/>
+      <c r="AC30" s="119"/>
+      <c r="AD30" s="119"/>
       <c r="AE30" s="62"/>
       <c r="AF30" s="62"/>
       <c r="AG30" s="16"/>
@@ -25840,9 +25846,9 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="86"/>
-      <c r="G31" s="111"/>
+      <c r="G31" s="106"/>
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="16"/>
@@ -25851,21 +25857,21 @@
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="62"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="127"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="120"/>
       <c r="W31" s="30"/>
       <c r="X31" s="31"/>
-      <c r="Y31" s="125"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="126"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="126"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="119"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="119"/>
       <c r="AE31" s="62"/>
       <c r="AF31" s="62"/>
       <c r="AG31" s="16"/>
@@ -25888,9 +25894,9 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="86"/>
-      <c r="G32" s="111"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="16"/>
@@ -25899,21 +25905,21 @@
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="62"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="127"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="120"/>
       <c r="W32" s="30"/>
       <c r="X32" s="31"/>
-      <c r="Y32" s="125"/>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="126"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="126"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119"/>
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="119"/>
+      <c r="AD32" s="119"/>
       <c r="AE32" s="62"/>
       <c r="AF32" s="62"/>
       <c r="AG32" s="16"/>
@@ -25936,9 +25942,9 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="86"/>
-      <c r="G33" s="111"/>
+      <c r="G33" s="106"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="16"/>
@@ -25947,21 +25953,21 @@
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
       <c r="O33" s="62"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="127"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="120"/>
       <c r="W33" s="30"/>
       <c r="X33" s="31"/>
-      <c r="Y33" s="125"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="126"/>
-      <c r="AC33" s="126"/>
-      <c r="AD33" s="126"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="119"/>
+      <c r="AD33" s="119"/>
       <c r="AE33" s="62"/>
       <c r="AF33" s="62"/>
       <c r="AG33" s="16"/>
@@ -25984,9 +25990,9 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="86"/>
-      <c r="G34" s="111"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="16"/>
@@ -25995,21 +26001,21 @@
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="62"/>
-      <c r="P34" s="125"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="127"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="120"/>
       <c r="W34" s="30"/>
       <c r="X34" s="31"/>
-      <c r="Y34" s="125"/>
-      <c r="Z34" s="126"/>
-      <c r="AA34" s="126"/>
-      <c r="AB34" s="126"/>
-      <c r="AC34" s="126"/>
-      <c r="AD34" s="126"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="119"/>
+      <c r="AA34" s="119"/>
+      <c r="AB34" s="119"/>
+      <c r="AC34" s="119"/>
+      <c r="AD34" s="119"/>
       <c r="AE34" s="62"/>
       <c r="AF34" s="62"/>
       <c r="AG34" s="16"/>
@@ -26032,9 +26038,9 @@
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="110"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="86"/>
-      <c r="G35" s="111"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="16"/>
@@ -26043,21 +26049,21 @@
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="62"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="127"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="120"/>
       <c r="W35" s="30"/>
       <c r="X35" s="31"/>
-      <c r="Y35" s="125"/>
-      <c r="Z35" s="126"/>
-      <c r="AA35" s="126"/>
-      <c r="AB35" s="126"/>
-      <c r="AC35" s="126"/>
-      <c r="AD35" s="126"/>
+      <c r="Y35" s="118"/>
+      <c r="Z35" s="119"/>
+      <c r="AA35" s="119"/>
+      <c r="AB35" s="119"/>
+      <c r="AC35" s="119"/>
+      <c r="AD35" s="119"/>
       <c r="AE35" s="62"/>
       <c r="AF35" s="62"/>
       <c r="AG35" s="16"/>
@@ -26080,9 +26086,9 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="86"/>
-      <c r="G36" s="111"/>
+      <c r="G36" s="106"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="16"/>
@@ -26091,21 +26097,21 @@
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="O36" s="62"/>
-      <c r="P36" s="125"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="126"/>
-      <c r="U36" s="126"/>
-      <c r="V36" s="127"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="119"/>
+      <c r="R36" s="119"/>
+      <c r="S36" s="119"/>
+      <c r="T36" s="119"/>
+      <c r="U36" s="119"/>
+      <c r="V36" s="120"/>
       <c r="W36" s="30"/>
       <c r="X36" s="31"/>
-      <c r="Y36" s="125"/>
-      <c r="Z36" s="126"/>
-      <c r="AA36" s="126"/>
-      <c r="AB36" s="126"/>
-      <c r="AC36" s="126"/>
-      <c r="AD36" s="126"/>
+      <c r="Y36" s="118"/>
+      <c r="Z36" s="119"/>
+      <c r="AA36" s="119"/>
+      <c r="AB36" s="119"/>
+      <c r="AC36" s="119"/>
+      <c r="AD36" s="119"/>
       <c r="AE36" s="62"/>
       <c r="AF36" s="62"/>
       <c r="AG36" s="16"/>
@@ -26128,9 +26134,9 @@
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="86"/>
-      <c r="G37" s="111"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="16"/>
@@ -26139,21 +26145,21 @@
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
       <c r="O37" s="62"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="126"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="127"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="120"/>
       <c r="W37" s="30"/>
       <c r="X37" s="31"/>
-      <c r="Y37" s="125"/>
-      <c r="Z37" s="126"/>
-      <c r="AA37" s="126"/>
-      <c r="AB37" s="126"/>
-      <c r="AC37" s="126"/>
-      <c r="AD37" s="126"/>
+      <c r="Y37" s="118"/>
+      <c r="Z37" s="119"/>
+      <c r="AA37" s="119"/>
+      <c r="AB37" s="119"/>
+      <c r="AC37" s="119"/>
+      <c r="AD37" s="119"/>
       <c r="AE37" s="62"/>
       <c r="AF37" s="62"/>
       <c r="AG37" s="16"/>
@@ -26176,9 +26182,9 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="110"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="86"/>
-      <c r="G38" s="111"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="16"/>
@@ -26187,21 +26193,21 @@
       <c r="M38" s="24"/>
       <c r="N38" s="24"/>
       <c r="O38" s="62"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="126"/>
-      <c r="U38" s="126"/>
-      <c r="V38" s="127"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="119"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="120"/>
       <c r="W38" s="30"/>
       <c r="X38" s="31"/>
-      <c r="Y38" s="125"/>
-      <c r="Z38" s="126"/>
-      <c r="AA38" s="126"/>
-      <c r="AB38" s="126"/>
-      <c r="AC38" s="126"/>
-      <c r="AD38" s="126"/>
+      <c r="Y38" s="118"/>
+      <c r="Z38" s="119"/>
+      <c r="AA38" s="119"/>
+      <c r="AB38" s="119"/>
+      <c r="AC38" s="119"/>
+      <c r="AD38" s="119"/>
       <c r="AE38" s="62"/>
       <c r="AF38" s="62"/>
       <c r="AG38" s="16"/>
@@ -26224,9 +26230,9 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="110"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="86"/>
-      <c r="G39" s="111"/>
+      <c r="G39" s="106"/>
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="16"/>
@@ -26235,21 +26241,21 @@
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
       <c r="O39" s="62"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="126"/>
-      <c r="T39" s="126"/>
-      <c r="U39" s="126"/>
-      <c r="V39" s="127"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="120"/>
       <c r="W39" s="30"/>
       <c r="X39" s="31"/>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="126"/>
-      <c r="AA39" s="126"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="126"/>
-      <c r="AD39" s="126"/>
+      <c r="Y39" s="118"/>
+      <c r="Z39" s="119"/>
+      <c r="AA39" s="119"/>
+      <c r="AB39" s="119"/>
+      <c r="AC39" s="119"/>
+      <c r="AD39" s="119"/>
       <c r="AE39" s="62"/>
       <c r="AF39" s="62"/>
       <c r="AG39" s="16"/>
@@ -26272,9 +26278,9 @@
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="110"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="86"/>
-      <c r="G40" s="111"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="16"/>
@@ -26283,21 +26289,21 @@
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
       <c r="O40" s="62"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="126"/>
-      <c r="T40" s="126"/>
-      <c r="U40" s="126"/>
-      <c r="V40" s="127"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="120"/>
       <c r="W40" s="30"/>
       <c r="X40" s="31"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="126"/>
-      <c r="AA40" s="126"/>
-      <c r="AB40" s="126"/>
-      <c r="AC40" s="126"/>
-      <c r="AD40" s="126"/>
+      <c r="Y40" s="118"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="119"/>
+      <c r="AB40" s="119"/>
+      <c r="AC40" s="119"/>
+      <c r="AD40" s="119"/>
       <c r="AE40" s="62"/>
       <c r="AF40" s="62"/>
       <c r="AG40" s="16"/>
@@ -26320,9 +26326,9 @@
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="110"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="86"/>
-      <c r="G41" s="111"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="16"/>
@@ -26331,21 +26337,21 @@
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
       <c r="O41" s="62"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="126"/>
-      <c r="U41" s="126"/>
-      <c r="V41" s="127"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="119"/>
+      <c r="U41" s="119"/>
+      <c r="V41" s="120"/>
       <c r="W41" s="30"/>
       <c r="X41" s="31"/>
-      <c r="Y41" s="125"/>
-      <c r="Z41" s="126"/>
-      <c r="AA41" s="126"/>
-      <c r="AB41" s="126"/>
-      <c r="AC41" s="126"/>
-      <c r="AD41" s="126"/>
+      <c r="Y41" s="118"/>
+      <c r="Z41" s="119"/>
+      <c r="AA41" s="119"/>
+      <c r="AB41" s="119"/>
+      <c r="AC41" s="119"/>
+      <c r="AD41" s="119"/>
       <c r="AE41" s="62"/>
       <c r="AF41" s="62"/>
       <c r="AG41" s="16"/>
@@ -26368,9 +26374,9 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="86"/>
-      <c r="G42" s="111"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="16"/>
@@ -26379,21 +26385,21 @@
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
       <c r="O42" s="62"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="127"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="119"/>
+      <c r="U42" s="119"/>
+      <c r="V42" s="120"/>
       <c r="W42" s="30"/>
       <c r="X42" s="31"/>
-      <c r="Y42" s="125"/>
-      <c r="Z42" s="126"/>
-      <c r="AA42" s="126"/>
-      <c r="AB42" s="126"/>
-      <c r="AC42" s="126"/>
-      <c r="AD42" s="126"/>
+      <c r="Y42" s="118"/>
+      <c r="Z42" s="119"/>
+      <c r="AA42" s="119"/>
+      <c r="AB42" s="119"/>
+      <c r="AC42" s="119"/>
+      <c r="AD42" s="119"/>
       <c r="AE42" s="62"/>
       <c r="AF42" s="62"/>
       <c r="AG42" s="16"/>
@@ -26416,9 +26422,9 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="86"/>
-      <c r="G43" s="111"/>
+      <c r="G43" s="106"/>
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="16"/>
@@ -26427,21 +26433,21 @@
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
       <c r="O43" s="62"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="126"/>
-      <c r="T43" s="126"/>
-      <c r="U43" s="126"/>
-      <c r="V43" s="127"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="119"/>
+      <c r="T43" s="119"/>
+      <c r="U43" s="119"/>
+      <c r="V43" s="120"/>
       <c r="W43" s="30"/>
       <c r="X43" s="31"/>
-      <c r="Y43" s="125"/>
-      <c r="Z43" s="126"/>
-      <c r="AA43" s="126"/>
-      <c r="AB43" s="126"/>
-      <c r="AC43" s="126"/>
-      <c r="AD43" s="126"/>
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="119"/>
+      <c r="AA43" s="119"/>
+      <c r="AB43" s="119"/>
+      <c r="AC43" s="119"/>
+      <c r="AD43" s="119"/>
       <c r="AE43" s="62"/>
       <c r="AF43" s="62"/>
       <c r="AG43" s="16"/>
@@ -26464,9 +26470,9 @@
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="86"/>
-      <c r="G44" s="111"/>
+      <c r="G44" s="106"/>
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="16"/>
@@ -26475,21 +26481,21 @@
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
       <c r="O44" s="62"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="126"/>
-      <c r="T44" s="126"/>
-      <c r="U44" s="126"/>
-      <c r="V44" s="127"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="119"/>
+      <c r="T44" s="119"/>
+      <c r="U44" s="119"/>
+      <c r="V44" s="120"/>
       <c r="W44" s="30"/>
       <c r="X44" s="31"/>
-      <c r="Y44" s="125"/>
-      <c r="Z44" s="126"/>
-      <c r="AA44" s="126"/>
-      <c r="AB44" s="126"/>
-      <c r="AC44" s="126"/>
-      <c r="AD44" s="126"/>
+      <c r="Y44" s="118"/>
+      <c r="Z44" s="119"/>
+      <c r="AA44" s="119"/>
+      <c r="AB44" s="119"/>
+      <c r="AC44" s="119"/>
+      <c r="AD44" s="119"/>
       <c r="AE44" s="62"/>
       <c r="AF44" s="62"/>
       <c r="AG44" s="16"/>
@@ -26512,9 +26518,9 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="86"/>
-      <c r="G45" s="111"/>
+      <c r="G45" s="106"/>
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="16"/>
@@ -26523,21 +26529,21 @@
       <c r="M45" s="24"/>
       <c r="N45" s="24"/>
       <c r="O45" s="62"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="126"/>
-      <c r="T45" s="126"/>
-      <c r="U45" s="126"/>
-      <c r="V45" s="127"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="119"/>
+      <c r="T45" s="119"/>
+      <c r="U45" s="119"/>
+      <c r="V45" s="120"/>
       <c r="W45" s="30"/>
       <c r="X45" s="31"/>
-      <c r="Y45" s="125"/>
-      <c r="Z45" s="126"/>
-      <c r="AA45" s="126"/>
-      <c r="AB45" s="126"/>
-      <c r="AC45" s="126"/>
-      <c r="AD45" s="126"/>
+      <c r="Y45" s="118"/>
+      <c r="Z45" s="119"/>
+      <c r="AA45" s="119"/>
+      <c r="AB45" s="119"/>
+      <c r="AC45" s="119"/>
+      <c r="AD45" s="119"/>
       <c r="AE45" s="62"/>
       <c r="AF45" s="62"/>
       <c r="AG45" s="16"/>
@@ -26560,9 +26566,9 @@
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="86"/>
-      <c r="G46" s="111"/>
+      <c r="G46" s="106"/>
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="16"/>
@@ -26571,21 +26577,21 @@
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
       <c r="O46" s="62"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="126"/>
-      <c r="U46" s="126"/>
-      <c r="V46" s="127"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="119"/>
+      <c r="T46" s="119"/>
+      <c r="U46" s="119"/>
+      <c r="V46" s="120"/>
       <c r="W46" s="30"/>
       <c r="X46" s="31"/>
-      <c r="Y46" s="125"/>
-      <c r="Z46" s="126"/>
-      <c r="AA46" s="126"/>
-      <c r="AB46" s="126"/>
-      <c r="AC46" s="126"/>
-      <c r="AD46" s="126"/>
+      <c r="Y46" s="118"/>
+      <c r="Z46" s="119"/>
+      <c r="AA46" s="119"/>
+      <c r="AB46" s="119"/>
+      <c r="AC46" s="119"/>
+      <c r="AD46" s="119"/>
       <c r="AE46" s="62"/>
       <c r="AF46" s="62"/>
       <c r="AG46" s="16"/>
@@ -26608,9 +26614,9 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="86"/>
-      <c r="G47" s="111"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="16"/>
@@ -26619,21 +26625,21 @@
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
       <c r="O47" s="62"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="126"/>
-      <c r="T47" s="126"/>
-      <c r="U47" s="126"/>
-      <c r="V47" s="127"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="119"/>
+      <c r="S47" s="119"/>
+      <c r="T47" s="119"/>
+      <c r="U47" s="119"/>
+      <c r="V47" s="120"/>
       <c r="W47" s="30"/>
       <c r="X47" s="31"/>
-      <c r="Y47" s="125"/>
-      <c r="Z47" s="126"/>
-      <c r="AA47" s="126"/>
-      <c r="AB47" s="126"/>
-      <c r="AC47" s="126"/>
-      <c r="AD47" s="126"/>
+      <c r="Y47" s="118"/>
+      <c r="Z47" s="119"/>
+      <c r="AA47" s="119"/>
+      <c r="AB47" s="119"/>
+      <c r="AC47" s="119"/>
+      <c r="AD47" s="119"/>
       <c r="AE47" s="62"/>
       <c r="AF47" s="62"/>
       <c r="AG47" s="16"/>
@@ -26656,9 +26662,9 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="86"/>
-      <c r="G48" s="111"/>
+      <c r="G48" s="106"/>
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="16"/>
@@ -26667,21 +26673,21 @@
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
       <c r="O48" s="62"/>
-      <c r="P48" s="125"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="126"/>
-      <c r="T48" s="126"/>
-      <c r="U48" s="126"/>
-      <c r="V48" s="127"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="119"/>
+      <c r="S48" s="119"/>
+      <c r="T48" s="119"/>
+      <c r="U48" s="119"/>
+      <c r="V48" s="120"/>
       <c r="W48" s="30"/>
       <c r="X48" s="31"/>
-      <c r="Y48" s="125"/>
-      <c r="Z48" s="126"/>
-      <c r="AA48" s="126"/>
-      <c r="AB48" s="126"/>
-      <c r="AC48" s="126"/>
-      <c r="AD48" s="126"/>
+      <c r="Y48" s="118"/>
+      <c r="Z48" s="119"/>
+      <c r="AA48" s="119"/>
+      <c r="AB48" s="119"/>
+      <c r="AC48" s="119"/>
+      <c r="AD48" s="119"/>
       <c r="AE48" s="62"/>
       <c r="AF48" s="62"/>
       <c r="AG48" s="16"/>
@@ -26704,9 +26710,9 @@
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="86"/>
-      <c r="G49" s="111"/>
+      <c r="G49" s="106"/>
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="16"/>
@@ -26715,21 +26721,21 @@
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
       <c r="O49" s="62"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="126"/>
-      <c r="T49" s="126"/>
-      <c r="U49" s="126"/>
-      <c r="V49" s="127"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="119"/>
+      <c r="R49" s="119"/>
+      <c r="S49" s="119"/>
+      <c r="T49" s="119"/>
+      <c r="U49" s="119"/>
+      <c r="V49" s="120"/>
       <c r="W49" s="30"/>
       <c r="X49" s="31"/>
-      <c r="Y49" s="125"/>
-      <c r="Z49" s="126"/>
-      <c r="AA49" s="126"/>
-      <c r="AB49" s="126"/>
-      <c r="AC49" s="126"/>
-      <c r="AD49" s="126"/>
+      <c r="Y49" s="118"/>
+      <c r="Z49" s="119"/>
+      <c r="AA49" s="119"/>
+      <c r="AB49" s="119"/>
+      <c r="AC49" s="119"/>
+      <c r="AD49" s="119"/>
       <c r="AE49" s="62"/>
       <c r="AF49" s="62"/>
       <c r="AG49" s="16"/>
@@ -26752,9 +26758,9 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="86"/>
-      <c r="G50" s="111"/>
+      <c r="G50" s="106"/>
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="16"/>
@@ -26763,21 +26769,21 @@
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
       <c r="O50" s="62"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="126"/>
-      <c r="T50" s="126"/>
-      <c r="U50" s="126"/>
-      <c r="V50" s="127"/>
+      <c r="P50" s="118"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="119"/>
+      <c r="S50" s="119"/>
+      <c r="T50" s="119"/>
+      <c r="U50" s="119"/>
+      <c r="V50" s="120"/>
       <c r="W50" s="30"/>
       <c r="X50" s="31"/>
-      <c r="Y50" s="125"/>
-      <c r="Z50" s="126"/>
-      <c r="AA50" s="126"/>
-      <c r="AB50" s="126"/>
-      <c r="AC50" s="126"/>
-      <c r="AD50" s="126"/>
+      <c r="Y50" s="118"/>
+      <c r="Z50" s="119"/>
+      <c r="AA50" s="119"/>
+      <c r="AB50" s="119"/>
+      <c r="AC50" s="119"/>
+      <c r="AD50" s="119"/>
       <c r="AE50" s="62"/>
       <c r="AF50" s="62"/>
       <c r="AG50" s="16"/>
@@ -26800,9 +26806,9 @@
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="86"/>
-      <c r="G51" s="111"/>
+      <c r="G51" s="106"/>
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="16"/>
@@ -26811,21 +26817,21 @@
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
       <c r="O51" s="62"/>
-      <c r="P51" s="125"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="126"/>
-      <c r="V51" s="127"/>
+      <c r="P51" s="118"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="119"/>
+      <c r="S51" s="119"/>
+      <c r="T51" s="119"/>
+      <c r="U51" s="119"/>
+      <c r="V51" s="120"/>
       <c r="W51" s="30"/>
       <c r="X51" s="31"/>
-      <c r="Y51" s="125"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="126"/>
-      <c r="AB51" s="126"/>
-      <c r="AC51" s="126"/>
-      <c r="AD51" s="126"/>
+      <c r="Y51" s="118"/>
+      <c r="Z51" s="119"/>
+      <c r="AA51" s="119"/>
+      <c r="AB51" s="119"/>
+      <c r="AC51" s="119"/>
+      <c r="AD51" s="119"/>
       <c r="AE51" s="62"/>
       <c r="AF51" s="62"/>
       <c r="AG51" s="16"/>
@@ -26848,9 +26854,9 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="86"/>
-      <c r="G52" s="111"/>
+      <c r="G52" s="106"/>
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="16"/>
@@ -26859,21 +26865,21 @@
       <c r="M52" s="24"/>
       <c r="N52" s="24"/>
       <c r="O52" s="62"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="126"/>
-      <c r="T52" s="126"/>
-      <c r="U52" s="126"/>
-      <c r="V52" s="127"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="119"/>
+      <c r="R52" s="119"/>
+      <c r="S52" s="119"/>
+      <c r="T52" s="119"/>
+      <c r="U52" s="119"/>
+      <c r="V52" s="120"/>
       <c r="W52" s="30"/>
       <c r="X52" s="31"/>
-      <c r="Y52" s="125"/>
-      <c r="Z52" s="126"/>
-      <c r="AA52" s="126"/>
-      <c r="AB52" s="126"/>
-      <c r="AC52" s="126"/>
-      <c r="AD52" s="126"/>
+      <c r="Y52" s="118"/>
+      <c r="Z52" s="119"/>
+      <c r="AA52" s="119"/>
+      <c r="AB52" s="119"/>
+      <c r="AC52" s="119"/>
+      <c r="AD52" s="119"/>
       <c r="AE52" s="62"/>
       <c r="AF52" s="62"/>
       <c r="AG52" s="16"/>
@@ -26896,9 +26902,9 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="86"/>
-      <c r="G53" s="111"/>
+      <c r="G53" s="106"/>
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="16"/>
@@ -26907,21 +26913,21 @@
       <c r="M53" s="24"/>
       <c r="N53" s="24"/>
       <c r="O53" s="62"/>
-      <c r="P53" s="125"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="126"/>
-      <c r="U53" s="126"/>
-      <c r="V53" s="127"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="119"/>
+      <c r="S53" s="119"/>
+      <c r="T53" s="119"/>
+      <c r="U53" s="119"/>
+      <c r="V53" s="120"/>
       <c r="W53" s="30"/>
       <c r="X53" s="31"/>
-      <c r="Y53" s="125"/>
-      <c r="Z53" s="126"/>
-      <c r="AA53" s="126"/>
-      <c r="AB53" s="126"/>
-      <c r="AC53" s="126"/>
-      <c r="AD53" s="126"/>
+      <c r="Y53" s="118"/>
+      <c r="Z53" s="119"/>
+      <c r="AA53" s="119"/>
+      <c r="AB53" s="119"/>
+      <c r="AC53" s="119"/>
+      <c r="AD53" s="119"/>
       <c r="AE53" s="62"/>
       <c r="AF53" s="62"/>
       <c r="AG53" s="16"/>
@@ -26944,9 +26950,9 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="86"/>
-      <c r="G54" s="111"/>
+      <c r="G54" s="106"/>
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="16"/>
@@ -26955,21 +26961,21 @@
       <c r="M54" s="24"/>
       <c r="N54" s="24"/>
       <c r="O54" s="62"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="126"/>
-      <c r="R54" s="126"/>
-      <c r="S54" s="126"/>
-      <c r="T54" s="126"/>
-      <c r="U54" s="126"/>
-      <c r="V54" s="127"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="119"/>
+      <c r="S54" s="119"/>
+      <c r="T54" s="119"/>
+      <c r="U54" s="119"/>
+      <c r="V54" s="120"/>
       <c r="W54" s="30"/>
       <c r="X54" s="31"/>
-      <c r="Y54" s="125"/>
-      <c r="Z54" s="126"/>
-      <c r="AA54" s="126"/>
-      <c r="AB54" s="126"/>
-      <c r="AC54" s="126"/>
-      <c r="AD54" s="126"/>
+      <c r="Y54" s="118"/>
+      <c r="Z54" s="119"/>
+      <c r="AA54" s="119"/>
+      <c r="AB54" s="119"/>
+      <c r="AC54" s="119"/>
+      <c r="AD54" s="119"/>
       <c r="AE54" s="62"/>
       <c r="AF54" s="62"/>
       <c r="AG54" s="16"/>
@@ -26992,9 +26998,9 @@
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="86"/>
-      <c r="G55" s="111"/>
+      <c r="G55" s="106"/>
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="16"/>
@@ -27003,21 +27009,21 @@
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
       <c r="O55" s="62"/>
-      <c r="P55" s="125"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="126"/>
-      <c r="U55" s="126"/>
-      <c r="V55" s="127"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="119"/>
+      <c r="R55" s="119"/>
+      <c r="S55" s="119"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="119"/>
+      <c r="V55" s="120"/>
       <c r="W55" s="30"/>
       <c r="X55" s="31"/>
-      <c r="Y55" s="125"/>
-      <c r="Z55" s="126"/>
-      <c r="AA55" s="126"/>
-      <c r="AB55" s="126"/>
-      <c r="AC55" s="126"/>
-      <c r="AD55" s="126"/>
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="119"/>
+      <c r="AA55" s="119"/>
+      <c r="AB55" s="119"/>
+      <c r="AC55" s="119"/>
+      <c r="AD55" s="119"/>
       <c r="AE55" s="62"/>
       <c r="AF55" s="62"/>
       <c r="AG55" s="16"/>
@@ -27040,9 +27046,9 @@
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="110"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="86"/>
-      <c r="G56" s="111"/>
+      <c r="G56" s="106"/>
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="16"/>
@@ -27051,21 +27057,21 @@
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
       <c r="O56" s="62"/>
-      <c r="P56" s="125"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="126"/>
-      <c r="U56" s="126"/>
-      <c r="V56" s="127"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="119"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="119"/>
+      <c r="T56" s="119"/>
+      <c r="U56" s="119"/>
+      <c r="V56" s="120"/>
       <c r="W56" s="30"/>
       <c r="X56" s="31"/>
-      <c r="Y56" s="125"/>
-      <c r="Z56" s="126"/>
-      <c r="AA56" s="126"/>
-      <c r="AB56" s="126"/>
-      <c r="AC56" s="126"/>
-      <c r="AD56" s="126"/>
+      <c r="Y56" s="118"/>
+      <c r="Z56" s="119"/>
+      <c r="AA56" s="119"/>
+      <c r="AB56" s="119"/>
+      <c r="AC56" s="119"/>
+      <c r="AD56" s="119"/>
       <c r="AE56" s="62"/>
       <c r="AF56" s="62"/>
       <c r="AG56" s="16"/>
@@ -27088,9 +27094,9 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="86"/>
-      <c r="G57" s="111"/>
+      <c r="G57" s="106"/>
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="16"/>
@@ -27099,21 +27105,21 @@
       <c r="M57" s="24"/>
       <c r="N57" s="24"/>
       <c r="O57" s="62"/>
-      <c r="P57" s="125"/>
-      <c r="Q57" s="126"/>
-      <c r="R57" s="126"/>
-      <c r="S57" s="126"/>
-      <c r="T57" s="126"/>
-      <c r="U57" s="126"/>
-      <c r="V57" s="127"/>
+      <c r="P57" s="118"/>
+      <c r="Q57" s="119"/>
+      <c r="R57" s="119"/>
+      <c r="S57" s="119"/>
+      <c r="T57" s="119"/>
+      <c r="U57" s="119"/>
+      <c r="V57" s="120"/>
       <c r="W57" s="30"/>
       <c r="X57" s="31"/>
-      <c r="Y57" s="125"/>
-      <c r="Z57" s="126"/>
-      <c r="AA57" s="126"/>
-      <c r="AB57" s="126"/>
-      <c r="AC57" s="126"/>
-      <c r="AD57" s="126"/>
+      <c r="Y57" s="118"/>
+      <c r="Z57" s="119"/>
+      <c r="AA57" s="119"/>
+      <c r="AB57" s="119"/>
+      <c r="AC57" s="119"/>
+      <c r="AD57" s="119"/>
       <c r="AE57" s="62"/>
       <c r="AF57" s="62"/>
       <c r="AG57" s="16"/>
@@ -27136,7 +27142,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="84"/>
       <c r="H58" s="64"/>
@@ -27147,21 +27153,21 @@
       <c r="M58" s="56"/>
       <c r="N58" s="56"/>
       <c r="O58" s="62"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="129"/>
-      <c r="U58" s="129"/>
-      <c r="V58" s="130"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="122"/>
+      <c r="T58" s="122"/>
+      <c r="U58" s="122"/>
+      <c r="V58" s="123"/>
       <c r="W58" s="74"/>
       <c r="X58" s="75"/>
-      <c r="Y58" s="128"/>
-      <c r="Z58" s="129"/>
-      <c r="AA58" s="129"/>
-      <c r="AB58" s="129"/>
-      <c r="AC58" s="129"/>
-      <c r="AD58" s="129"/>
+      <c r="Y58" s="121"/>
+      <c r="Z58" s="122"/>
+      <c r="AA58" s="122"/>
+      <c r="AB58" s="122"/>
+      <c r="AC58" s="122"/>
+      <c r="AD58" s="122"/>
       <c r="AE58" s="62"/>
       <c r="AF58" s="62"/>
       <c r="AG58" s="16"/>
@@ -27178,6 +27184,7 @@
       <c r="AP58" s="61"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="2FcIJAPbIOiQqXSSHyOG5G+tkzpkEyfu2fjNrEyuLQry+dRaV1Clj1Q1vD0LcG0sHb+AjSifdUS62Hl6v6576A==" saltValue="d5gdeNUwbMcaupnGpkIFZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="69">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
@@ -27200,13 +27207,6 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="P4:V58"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E9:F9"/>
@@ -27216,6 +27216,13 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="Y4:AD58"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E30:F30"/>
@@ -27232,7 +27239,6 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="E57:F57"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="E54:F54"/>
@@ -27246,12 +27252,13 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E56:F56"/>
     <mergeCell ref="E47:F47"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="P4:V58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27259,7 +27266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -27908,7 +27915,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -27933,7 +27940,7 @@
         <v>2</v>
       </c>
       <c r="S1" s="39"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="103" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
@@ -27962,11 +27969,11 @@
       <c r="AN1" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
     </row>
     <row r="2" spans="1:42" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -28084,7 +28091,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
@@ -28206,8 +28213,8 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -28236,7 +28243,7 @@
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
-      <c r="AG4" s="102" t="s">
+      <c r="AG4" s="105" t="s">
         <v>39</v>
       </c>
       <c r="AH4" s="62"/>
@@ -28286,7 +28293,7 @@
       <c r="AD5" s="16"/>
       <c r="AE5" s="24"/>
       <c r="AF5" s="24"/>
-      <c r="AG5" s="111"/>
+      <c r="AG5" s="106"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="16"/>
@@ -28334,7 +28341,7 @@
       <c r="AD6" s="16"/>
       <c r="AE6" s="24"/>
       <c r="AF6" s="24"/>
-      <c r="AG6" s="111"/>
+      <c r="AG6" s="106"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="16"/>
@@ -28382,7 +28389,7 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="24"/>
       <c r="AF7" s="24"/>
-      <c r="AG7" s="111"/>
+      <c r="AG7" s="106"/>
       <c r="AH7" s="62"/>
       <c r="AI7" s="62"/>
       <c r="AJ7" s="16"/>
@@ -28430,7 +28437,7 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="24"/>
       <c r="AF8" s="24"/>
-      <c r="AG8" s="111"/>
+      <c r="AG8" s="106"/>
       <c r="AH8" s="62"/>
       <c r="AI8" s="62"/>
       <c r="AJ8" s="16"/>
@@ -28478,7 +28485,7 @@
       <c r="AD9" s="16"/>
       <c r="AE9" s="24"/>
       <c r="AF9" s="24"/>
-      <c r="AG9" s="111"/>
+      <c r="AG9" s="106"/>
       <c r="AH9" s="62"/>
       <c r="AI9" s="62"/>
       <c r="AJ9" s="16"/>
@@ -28526,7 +28533,7 @@
       <c r="AD10" s="16"/>
       <c r="AE10" s="24"/>
       <c r="AF10" s="24"/>
-      <c r="AG10" s="111"/>
+      <c r="AG10" s="106"/>
       <c r="AH10" s="62"/>
       <c r="AI10" s="62"/>
       <c r="AJ10" s="16"/>
@@ -28574,7 +28581,7 @@
       <c r="AD11" s="16"/>
       <c r="AE11" s="24"/>
       <c r="AF11" s="24"/>
-      <c r="AG11" s="111"/>
+      <c r="AG11" s="106"/>
       <c r="AH11" s="62"/>
       <c r="AI11" s="62"/>
       <c r="AJ11" s="16"/>
@@ -28622,7 +28629,7 @@
       <c r="AD12" s="16"/>
       <c r="AE12" s="24"/>
       <c r="AF12" s="24"/>
-      <c r="AG12" s="111"/>
+      <c r="AG12" s="106"/>
       <c r="AH12" s="62"/>
       <c r="AI12" s="62"/>
       <c r="AJ12" s="16"/>
@@ -28670,7 +28677,7 @@
       <c r="AD13" s="16"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
-      <c r="AG13" s="111"/>
+      <c r="AG13" s="106"/>
       <c r="AH13" s="62"/>
       <c r="AI13" s="62"/>
       <c r="AJ13" s="16"/>
@@ -28718,7 +28725,7 @@
       <c r="AD14" s="16"/>
       <c r="AE14" s="24"/>
       <c r="AF14" s="24"/>
-      <c r="AG14" s="111"/>
+      <c r="AG14" s="106"/>
       <c r="AH14" s="62"/>
       <c r="AI14" s="62"/>
       <c r="AJ14" s="16"/>
@@ -28766,7 +28773,7 @@
       <c r="AD15" s="16"/>
       <c r="AE15" s="24"/>
       <c r="AF15" s="24"/>
-      <c r="AG15" s="111"/>
+      <c r="AG15" s="106"/>
       <c r="AH15" s="62"/>
       <c r="AI15" s="62"/>
       <c r="AJ15" s="16"/>
@@ -28814,7 +28821,7 @@
       <c r="AD16" s="16"/>
       <c r="AE16" s="24"/>
       <c r="AF16" s="24"/>
-      <c r="AG16" s="111"/>
+      <c r="AG16" s="106"/>
       <c r="AH16" s="62"/>
       <c r="AI16" s="62"/>
       <c r="AJ16" s="16"/>
@@ -28862,7 +28869,7 @@
       <c r="AD17" s="16"/>
       <c r="AE17" s="24"/>
       <c r="AF17" s="24"/>
-      <c r="AG17" s="111"/>
+      <c r="AG17" s="106"/>
       <c r="AH17" s="62"/>
       <c r="AI17" s="62"/>
       <c r="AJ17" s="16"/>
@@ -28910,7 +28917,7 @@
       <c r="AD18" s="16"/>
       <c r="AE18" s="24"/>
       <c r="AF18" s="24"/>
-      <c r="AG18" s="111"/>
+      <c r="AG18" s="106"/>
       <c r="AH18" s="62"/>
       <c r="AI18" s="62"/>
       <c r="AJ18" s="16"/>
@@ -28958,7 +28965,7 @@
       <c r="AD19" s="16"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
-      <c r="AG19" s="111"/>
+      <c r="AG19" s="106"/>
       <c r="AH19" s="62"/>
       <c r="AI19" s="62"/>
       <c r="AJ19" s="16"/>
@@ -29006,7 +29013,7 @@
       <c r="AD20" s="16"/>
       <c r="AE20" s="24"/>
       <c r="AF20" s="24"/>
-      <c r="AG20" s="111"/>
+      <c r="AG20" s="106"/>
       <c r="AH20" s="62"/>
       <c r="AI20" s="62"/>
       <c r="AJ20" s="16"/>
@@ -29054,7 +29061,7 @@
       <c r="AD21" s="16"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
-      <c r="AG21" s="111"/>
+      <c r="AG21" s="106"/>
       <c r="AH21" s="62"/>
       <c r="AI21" s="62"/>
       <c r="AJ21" s="16"/>
@@ -29102,7 +29109,7 @@
       <c r="AD22" s="16"/>
       <c r="AE22" s="24"/>
       <c r="AF22" s="24"/>
-      <c r="AG22" s="111"/>
+      <c r="AG22" s="106"/>
       <c r="AH22" s="62"/>
       <c r="AI22" s="62"/>
       <c r="AJ22" s="16"/>
@@ -29150,7 +29157,7 @@
       <c r="AD23" s="16"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="24"/>
-      <c r="AG23" s="111"/>
+      <c r="AG23" s="106"/>
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
       <c r="AJ23" s="16"/>
@@ -29198,7 +29205,7 @@
       <c r="AD24" s="16"/>
       <c r="AE24" s="24"/>
       <c r="AF24" s="24"/>
-      <c r="AG24" s="111"/>
+      <c r="AG24" s="106"/>
       <c r="AH24" s="62"/>
       <c r="AI24" s="62"/>
       <c r="AJ24" s="16"/>
@@ -29218,7 +29225,7 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="86"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -29246,7 +29253,7 @@
       <c r="AD25" s="16"/>
       <c r="AE25" s="24"/>
       <c r="AF25" s="24"/>
-      <c r="AG25" s="111"/>
+      <c r="AG25" s="106"/>
       <c r="AH25" s="62"/>
       <c r="AI25" s="62"/>
       <c r="AJ25" s="16"/>
@@ -29266,7 +29273,7 @@
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="110"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="86"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -29294,7 +29301,7 @@
       <c r="AD26" s="16"/>
       <c r="AE26" s="24"/>
       <c r="AF26" s="24"/>
-      <c r="AG26" s="111"/>
+      <c r="AG26" s="106"/>
       <c r="AH26" s="62"/>
       <c r="AI26" s="62"/>
       <c r="AJ26" s="16"/>
@@ -29314,7 +29321,7 @@
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="86"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -29342,7 +29349,7 @@
       <c r="AD27" s="16"/>
       <c r="AE27" s="24"/>
       <c r="AF27" s="24"/>
-      <c r="AG27" s="111"/>
+      <c r="AG27" s="106"/>
       <c r="AH27" s="62"/>
       <c r="AI27" s="62"/>
       <c r="AJ27" s="16"/>
@@ -29362,7 +29369,7 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="86"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -29390,7 +29397,7 @@
       <c r="AD28" s="16"/>
       <c r="AE28" s="24"/>
       <c r="AF28" s="24"/>
-      <c r="AG28" s="111"/>
+      <c r="AG28" s="106"/>
       <c r="AH28" s="62"/>
       <c r="AI28" s="62"/>
       <c r="AJ28" s="16"/>
@@ -29410,7 +29417,7 @@
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="86"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -29438,7 +29445,7 @@
       <c r="AD29" s="16"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
-      <c r="AG29" s="111"/>
+      <c r="AG29" s="106"/>
       <c r="AH29" s="62"/>
       <c r="AI29" s="62"/>
       <c r="AJ29" s="16"/>
@@ -29458,7 +29465,7 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="110"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="86"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
@@ -29486,7 +29493,7 @@
       <c r="AD30" s="16"/>
       <c r="AE30" s="24"/>
       <c r="AF30" s="24"/>
-      <c r="AG30" s="111"/>
+      <c r="AG30" s="106"/>
       <c r="AH30" s="62"/>
       <c r="AI30" s="62"/>
       <c r="AJ30" s="16"/>
@@ -29506,7 +29513,7 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="86"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
@@ -29534,7 +29541,7 @@
       <c r="AD31" s="16"/>
       <c r="AE31" s="24"/>
       <c r="AF31" s="24"/>
-      <c r="AG31" s="111"/>
+      <c r="AG31" s="106"/>
       <c r="AH31" s="62"/>
       <c r="AI31" s="62"/>
       <c r="AJ31" s="16"/>
@@ -29554,7 +29561,7 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="86"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
@@ -29582,7 +29589,7 @@
       <c r="AD32" s="16"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
-      <c r="AG32" s="111"/>
+      <c r="AG32" s="106"/>
       <c r="AH32" s="62"/>
       <c r="AI32" s="62"/>
       <c r="AJ32" s="16"/>
@@ -29602,7 +29609,7 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="86"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
@@ -29630,7 +29637,7 @@
       <c r="AD33" s="16"/>
       <c r="AE33" s="24"/>
       <c r="AF33" s="24"/>
-      <c r="AG33" s="111"/>
+      <c r="AG33" s="106"/>
       <c r="AH33" s="62"/>
       <c r="AI33" s="62"/>
       <c r="AJ33" s="16"/>
@@ -29650,7 +29657,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="86"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -29678,7 +29685,7 @@
       <c r="AD34" s="16"/>
       <c r="AE34" s="24"/>
       <c r="AF34" s="24"/>
-      <c r="AG34" s="111"/>
+      <c r="AG34" s="106"/>
       <c r="AH34" s="62"/>
       <c r="AI34" s="62"/>
       <c r="AJ34" s="16"/>
@@ -29698,7 +29705,7 @@
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="110"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="86"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
@@ -29726,7 +29733,7 @@
       <c r="AD35" s="16"/>
       <c r="AE35" s="24"/>
       <c r="AF35" s="24"/>
-      <c r="AG35" s="111"/>
+      <c r="AG35" s="106"/>
       <c r="AH35" s="62"/>
       <c r="AI35" s="62"/>
       <c r="AJ35" s="16"/>
@@ -29746,7 +29753,7 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="86"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
@@ -29774,7 +29781,7 @@
       <c r="AD36" s="16"/>
       <c r="AE36" s="24"/>
       <c r="AF36" s="24"/>
-      <c r="AG36" s="111"/>
+      <c r="AG36" s="106"/>
       <c r="AH36" s="62"/>
       <c r="AI36" s="62"/>
       <c r="AJ36" s="16"/>
@@ -29794,7 +29801,7 @@
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="86"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
@@ -29822,7 +29829,7 @@
       <c r="AD37" s="16"/>
       <c r="AE37" s="24"/>
       <c r="AF37" s="24"/>
-      <c r="AG37" s="111"/>
+      <c r="AG37" s="106"/>
       <c r="AH37" s="62"/>
       <c r="AI37" s="62"/>
       <c r="AJ37" s="16"/>
@@ -29842,7 +29849,7 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="110"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="86"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -29870,7 +29877,7 @@
       <c r="AD38" s="16"/>
       <c r="AE38" s="24"/>
       <c r="AF38" s="24"/>
-      <c r="AG38" s="111"/>
+      <c r="AG38" s="106"/>
       <c r="AH38" s="62"/>
       <c r="AI38" s="62"/>
       <c r="AJ38" s="16"/>
@@ -29890,7 +29897,7 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="110"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="86"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
@@ -29918,7 +29925,7 @@
       <c r="AD39" s="16"/>
       <c r="AE39" s="24"/>
       <c r="AF39" s="24"/>
-      <c r="AG39" s="111"/>
+      <c r="AG39" s="106"/>
       <c r="AH39" s="62"/>
       <c r="AI39" s="62"/>
       <c r="AJ39" s="16"/>
@@ -29938,7 +29945,7 @@
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="110"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="86"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -29966,7 +29973,7 @@
       <c r="AD40" s="16"/>
       <c r="AE40" s="24"/>
       <c r="AF40" s="24"/>
-      <c r="AG40" s="111"/>
+      <c r="AG40" s="106"/>
       <c r="AH40" s="62"/>
       <c r="AI40" s="62"/>
       <c r="AJ40" s="16"/>
@@ -29986,7 +29993,7 @@
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="110"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="86"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -30014,7 +30021,7 @@
       <c r="AD41" s="16"/>
       <c r="AE41" s="24"/>
       <c r="AF41" s="24"/>
-      <c r="AG41" s="111"/>
+      <c r="AG41" s="106"/>
       <c r="AH41" s="62"/>
       <c r="AI41" s="62"/>
       <c r="AJ41" s="16"/>
@@ -30034,7 +30041,7 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="86"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -30062,7 +30069,7 @@
       <c r="AD42" s="16"/>
       <c r="AE42" s="24"/>
       <c r="AF42" s="24"/>
-      <c r="AG42" s="111"/>
+      <c r="AG42" s="106"/>
       <c r="AH42" s="62"/>
       <c r="AI42" s="62"/>
       <c r="AJ42" s="16"/>
@@ -30082,7 +30089,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="86"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -30110,7 +30117,7 @@
       <c r="AD43" s="16"/>
       <c r="AE43" s="24"/>
       <c r="AF43" s="24"/>
-      <c r="AG43" s="111"/>
+      <c r="AG43" s="106"/>
       <c r="AH43" s="62"/>
       <c r="AI43" s="62"/>
       <c r="AJ43" s="16"/>
@@ -30130,7 +30137,7 @@
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="86"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
@@ -30158,7 +30165,7 @@
       <c r="AD44" s="16"/>
       <c r="AE44" s="24"/>
       <c r="AF44" s="24"/>
-      <c r="AG44" s="111"/>
+      <c r="AG44" s="106"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="16"/>
@@ -30178,7 +30185,7 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="86"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
@@ -30206,7 +30213,7 @@
       <c r="AD45" s="16"/>
       <c r="AE45" s="24"/>
       <c r="AF45" s="24"/>
-      <c r="AG45" s="111"/>
+      <c r="AG45" s="106"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="16"/>
@@ -30226,7 +30233,7 @@
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="86"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
@@ -30254,7 +30261,7 @@
       <c r="AD46" s="16"/>
       <c r="AE46" s="24"/>
       <c r="AF46" s="24"/>
-      <c r="AG46" s="111"/>
+      <c r="AG46" s="106"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="16"/>
@@ -30274,7 +30281,7 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="86"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
@@ -30302,7 +30309,7 @@
       <c r="AD47" s="16"/>
       <c r="AE47" s="24"/>
       <c r="AF47" s="24"/>
-      <c r="AG47" s="111"/>
+      <c r="AG47" s="106"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="16"/>
@@ -30322,7 +30329,7 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="86"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
@@ -30350,7 +30357,7 @@
       <c r="AD48" s="16"/>
       <c r="AE48" s="24"/>
       <c r="AF48" s="24"/>
-      <c r="AG48" s="111"/>
+      <c r="AG48" s="106"/>
       <c r="AH48" s="62"/>
       <c r="AI48" s="62"/>
       <c r="AJ48" s="16"/>
@@ -30370,7 +30377,7 @@
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="86"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
@@ -30398,7 +30405,7 @@
       <c r="AD49" s="16"/>
       <c r="AE49" s="24"/>
       <c r="AF49" s="24"/>
-      <c r="AG49" s="111"/>
+      <c r="AG49" s="106"/>
       <c r="AH49" s="62"/>
       <c r="AI49" s="62"/>
       <c r="AJ49" s="16"/>
@@ -30418,7 +30425,7 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="86"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -30446,7 +30453,7 @@
       <c r="AD50" s="16"/>
       <c r="AE50" s="24"/>
       <c r="AF50" s="24"/>
-      <c r="AG50" s="111"/>
+      <c r="AG50" s="106"/>
       <c r="AH50" s="62"/>
       <c r="AI50" s="62"/>
       <c r="AJ50" s="16"/>
@@ -30466,7 +30473,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="86"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
@@ -30494,7 +30501,7 @@
       <c r="AD51" s="16"/>
       <c r="AE51" s="24"/>
       <c r="AF51" s="24"/>
-      <c r="AG51" s="111"/>
+      <c r="AG51" s="106"/>
       <c r="AH51" s="62"/>
       <c r="AI51" s="62"/>
       <c r="AJ51" s="16"/>
@@ -30514,7 +30521,7 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="86"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
@@ -30542,7 +30549,7 @@
       <c r="AD52" s="16"/>
       <c r="AE52" s="24"/>
       <c r="AF52" s="24"/>
-      <c r="AG52" s="111"/>
+      <c r="AG52" s="106"/>
       <c r="AH52" s="62"/>
       <c r="AI52" s="62"/>
       <c r="AJ52" s="16"/>
@@ -30562,7 +30569,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="86"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
@@ -30590,7 +30597,7 @@
       <c r="AD53" s="16"/>
       <c r="AE53" s="24"/>
       <c r="AF53" s="24"/>
-      <c r="AG53" s="111"/>
+      <c r="AG53" s="106"/>
       <c r="AH53" s="62"/>
       <c r="AI53" s="62"/>
       <c r="AJ53" s="16"/>
@@ -30610,7 +30617,7 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="86"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
@@ -30638,7 +30645,7 @@
       <c r="AD54" s="16"/>
       <c r="AE54" s="24"/>
       <c r="AF54" s="24"/>
-      <c r="AG54" s="111"/>
+      <c r="AG54" s="106"/>
       <c r="AH54" s="62"/>
       <c r="AI54" s="62"/>
       <c r="AJ54" s="16"/>
@@ -30658,7 +30665,7 @@
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="86"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
@@ -30686,7 +30693,7 @@
       <c r="AD55" s="16"/>
       <c r="AE55" s="24"/>
       <c r="AF55" s="24"/>
-      <c r="AG55" s="111"/>
+      <c r="AG55" s="106"/>
       <c r="AH55" s="62"/>
       <c r="AI55" s="62"/>
       <c r="AJ55" s="16"/>
@@ -30706,7 +30713,7 @@
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="110"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="86"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
@@ -30734,7 +30741,7 @@
       <c r="AD56" s="16"/>
       <c r="AE56" s="24"/>
       <c r="AF56" s="24"/>
-      <c r="AG56" s="111"/>
+      <c r="AG56" s="106"/>
       <c r="AH56" s="62"/>
       <c r="AI56" s="62"/>
       <c r="AJ56" s="16"/>
@@ -30754,7 +30761,7 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="86"/>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
@@ -30782,7 +30789,7 @@
       <c r="AD57" s="16"/>
       <c r="AE57" s="24"/>
       <c r="AF57" s="24"/>
-      <c r="AG57" s="111"/>
+      <c r="AG57" s="106"/>
       <c r="AH57" s="62"/>
       <c r="AI57" s="62"/>
       <c r="AJ57" s="16"/>
@@ -30802,7 +30809,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
@@ -30844,6 +30851,7 @@
       <c r="AP58" s="61"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="vaL2JNEURhG+q8yaRdvai/BxzncM7rAYys0dSjJ9vwqUdVGDzADSeqTn7znYSi/CPCEZVzJJKpC0+ZzNhczfHQ==" saltValue="6lvXjzwIk4BBikqRJlRtNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="67">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
@@ -30915,7 +30923,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30923,7 +30931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -31572,7 +31580,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -31582,14 +31590,14 @@
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
       <c r="H1" s="39"/>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
       <c r="Q1" s="39"/>
@@ -31597,7 +31605,7 @@
         <v>2</v>
       </c>
       <c r="S1" s="39"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="103" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
@@ -31626,11 +31634,11 @@
       <c r="AN1" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
     </row>
     <row r="2" spans="1:42" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -31746,7 +31754,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
@@ -31866,8 +31874,8 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="62"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -32874,7 +32882,7 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="86"/>
       <c r="G25" s="63"/>
       <c r="H25" s="16"/>
@@ -32922,7 +32930,7 @@
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="110"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="86"/>
       <c r="G26" s="63"/>
       <c r="H26" s="16"/>
@@ -32970,7 +32978,7 @@
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="86"/>
       <c r="G27" s="63"/>
       <c r="H27" s="16"/>
@@ -33018,7 +33026,7 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="86"/>
       <c r="G28" s="63"/>
       <c r="H28" s="16"/>
@@ -33066,7 +33074,7 @@
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="86"/>
       <c r="G29" s="63"/>
       <c r="H29" s="16"/>
@@ -33114,7 +33122,7 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="110"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="86"/>
       <c r="G30" s="63"/>
       <c r="H30" s="16"/>
@@ -33162,7 +33170,7 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="86"/>
       <c r="G31" s="63"/>
       <c r="H31" s="16"/>
@@ -33210,7 +33218,7 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="86"/>
       <c r="G32" s="63"/>
       <c r="H32" s="16"/>
@@ -33258,7 +33266,7 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="86"/>
       <c r="G33" s="63"/>
       <c r="H33" s="16"/>
@@ -33306,7 +33314,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="86"/>
       <c r="G34" s="63"/>
       <c r="H34" s="16"/>
@@ -33354,7 +33362,7 @@
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="110"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="86"/>
       <c r="G35" s="63"/>
       <c r="H35" s="16"/>
@@ -33402,7 +33410,7 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="86"/>
       <c r="G36" s="63"/>
       <c r="H36" s="16"/>
@@ -33450,7 +33458,7 @@
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="86"/>
       <c r="G37" s="63"/>
       <c r="H37" s="16"/>
@@ -33498,7 +33506,7 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="110"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="86"/>
       <c r="G38" s="63"/>
       <c r="H38" s="16"/>
@@ -33546,7 +33554,7 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="110"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="86"/>
       <c r="G39" s="63"/>
       <c r="H39" s="16"/>
@@ -33594,7 +33602,7 @@
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="110"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="86"/>
       <c r="G40" s="63"/>
       <c r="H40" s="16"/>
@@ -33642,7 +33650,7 @@
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="110"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="86"/>
       <c r="G41" s="63"/>
       <c r="H41" s="16"/>
@@ -33690,7 +33698,7 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="86"/>
       <c r="G42" s="63"/>
       <c r="H42" s="16"/>
@@ -33738,7 +33746,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="86"/>
       <c r="G43" s="63"/>
       <c r="H43" s="16"/>
@@ -33786,7 +33794,7 @@
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="86"/>
       <c r="G44" s="63"/>
       <c r="H44" s="16"/>
@@ -33834,7 +33842,7 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="86"/>
       <c r="G45" s="63"/>
       <c r="H45" s="16"/>
@@ -33882,7 +33890,7 @@
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="86"/>
       <c r="G46" s="63"/>
       <c r="H46" s="16"/>
@@ -33930,7 +33938,7 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="86"/>
       <c r="G47" s="63"/>
       <c r="H47" s="16"/>
@@ -33978,7 +33986,7 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="86"/>
       <c r="G48" s="63"/>
       <c r="H48" s="16"/>
@@ -34026,7 +34034,7 @@
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="86"/>
       <c r="G49" s="63"/>
       <c r="H49" s="16"/>
@@ -34074,7 +34082,7 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="86"/>
       <c r="G50" s="63"/>
       <c r="H50" s="16"/>
@@ -34122,7 +34130,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="86"/>
       <c r="G51" s="63"/>
       <c r="H51" s="16"/>
@@ -34170,7 +34178,7 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="86"/>
       <c r="G52" s="63"/>
       <c r="H52" s="16"/>
@@ -34218,7 +34226,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="86"/>
       <c r="G53" s="63"/>
       <c r="H53" s="16"/>
@@ -34266,7 +34274,7 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="86"/>
       <c r="G54" s="63"/>
       <c r="H54" s="16"/>
@@ -34314,7 +34322,7 @@
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="86"/>
       <c r="G55" s="63"/>
       <c r="H55" s="16"/>
@@ -34362,7 +34370,7 @@
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="110"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="86"/>
       <c r="G56" s="63"/>
       <c r="H56" s="16"/>
@@ -34410,7 +34418,7 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="86"/>
       <c r="G57" s="63"/>
       <c r="H57" s="16"/>
@@ -34458,7 +34466,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="64"/>
       <c r="H58" s="16"/>
@@ -34500,6 +34508,7 @@
       <c r="AP58" s="61"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="kuG3LZWsnT6AWbbBTAxIJmBTVewTfk2qDyOHyBI3B9m5mNXLGx0EFjoSFgBuB4vZKWgPj7Prj6G7Nk79GlA2ZA==" saltValue="maBl8HSd1lhFx/QYwoeX2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
@@ -34533,44 +34542,44 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34578,7 +34587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -35227,7 +35236,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82"/>
@@ -35237,7 +35246,7 @@
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="129" t="s">
         <v>42</v>
       </c>
       <c r="J1" s="82"/>
@@ -35252,14 +35261,14 @@
         <v>2</v>
       </c>
       <c r="S1" s="8"/>
-      <c r="T1" s="120" t="s">
+      <c r="T1" s="131" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="82"/>
       <c r="V1" s="82"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="82"/>
@@ -35268,7 +35277,7 @@
       <c r="AC1" s="82"/>
       <c r="AD1" s="82"/>
       <c r="AE1" s="82"/>
-      <c r="AF1" s="118" t="s">
+      <c r="AF1" s="129" t="s">
         <v>5</v>
       </c>
       <c r="AG1" s="82"/>
@@ -35278,17 +35287,17 @@
       <c r="AK1" s="82"/>
       <c r="AL1" s="82"/>
       <c r="AM1" s="82"/>
-      <c r="AN1" s="118" t="s">
+      <c r="AN1" s="129" t="s">
         <v>47</v>
       </c>
       <c r="AO1" s="82"/>
       <c r="AP1" s="82"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="92"/>
@@ -35392,18 +35401,18 @@
       <c r="AM2" s="4">
         <v>31</v>
       </c>
-      <c r="AN2" s="117" t="s">
+      <c r="AN2" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="AO2" s="117" t="s">
+      <c r="AO2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="115" t="s">
+      <c r="AP2" s="126" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:42" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -35525,8 +35534,8 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="62"/>
@@ -36533,7 +36542,7 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="86"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -36581,7 +36590,7 @@
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="110"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="86"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -36629,7 +36638,7 @@
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="86"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -36677,7 +36686,7 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="86"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -36725,7 +36734,7 @@
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="86"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -36773,7 +36782,7 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="110"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="86"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
@@ -36821,7 +36830,7 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="86"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
@@ -36869,7 +36878,7 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="86"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
@@ -36917,7 +36926,7 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="86"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
@@ -36965,7 +36974,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="86"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -37013,7 +37022,7 @@
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="110"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="86"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
@@ -37061,7 +37070,7 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="86"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
@@ -37109,7 +37118,7 @@
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="86"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
@@ -37157,7 +37166,7 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="110"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="86"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -37205,7 +37214,7 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="110"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="86"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
@@ -37253,7 +37262,7 @@
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="110"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="86"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -37301,7 +37310,7 @@
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="110"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="86"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -37349,7 +37358,7 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="86"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -37397,7 +37406,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="86"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -37445,7 +37454,7 @@
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="86"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
@@ -37493,7 +37502,7 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="86"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
@@ -37541,7 +37550,7 @@
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="86"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
@@ -37589,7 +37598,7 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="86"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
@@ -37637,7 +37646,7 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="86"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
@@ -37685,7 +37694,7 @@
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="86"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
@@ -37733,7 +37742,7 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="86"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -37781,7 +37790,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="86"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
@@ -37829,7 +37838,7 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="86"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
@@ -37877,7 +37886,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="86"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
@@ -37925,7 +37934,7 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="86"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
@@ -37973,7 +37982,7 @@
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="86"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
@@ -38021,7 +38030,7 @@
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="110"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="86"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
@@ -38069,7 +38078,7 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="86"/>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
@@ -38117,7 +38126,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="112"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="95"/>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
@@ -38159,6 +38168,7 @@
       <c r="AP58" s="61"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="rUj6AH4oQr9I3/QsxEg9RPsHH9ahOGXW3XXyXVi3FL4wbc2Y/Rzu3E6HLHwNeiKh11+mGwgDoLwotA1/Id2aiQ==" saltValue="nvhKSIcbhDM22mLTpYQHXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="E55:F55"/>
@@ -38192,43 +38202,43 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>